--- a/設計書/DB設計書.xlsx
+++ b/設計書/DB設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\DB設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBBCCBC-B5EE-4536-8DEC-AD76C3B17EC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EE67B0-4AF5-47D5-A23C-D5599ADA0CE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="掲示板" sheetId="28" r:id="rId9"/>
     <sheet name="掲示板コメント" sheetId="29" r:id="rId10"/>
     <sheet name="カテゴリー" sheetId="30" r:id="rId11"/>
-    <sheet name="二段階認証" sheetId="35" r:id="rId12"/>
+    <sheet name="認証" sheetId="35" r:id="rId12"/>
     <sheet name="CRUD図 " sheetId="18" r:id="rId13"/>
   </sheets>
   <definedNames>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">掲示板!$A$1:$H$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">掲示板コメント!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">趣味!$A$1:$H$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">二段階認証!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">認証!$A$1:$H$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
@@ -1654,16 +1654,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>二段階認証</t>
-    <rPh sb="0" eb="3">
-      <t>ニダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Authentication</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1679,14 +1669,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>二段階認証を管理するテーブル</t>
-    <rPh sb="0" eb="3">
-      <t>ニダンカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <t>認証</t>
+    <rPh sb="0" eb="2">
       <t>ニンショウ</t>
     </rPh>
-    <rPh sb="6" eb="14">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証を管理するテーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="11">
       <t>カンr</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3676,6 +3670,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4050,9 +4047,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -6775,7 +6769,7 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-              <a:t>二段階認証</a:t>
+              <a:t>認証</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -7586,21 +7580,21 @@
       <c r="R3" s="206"/>
       <c r="S3" s="206"/>
       <c r="T3" s="206"/>
-      <c r="U3" s="238" t="s">
+      <c r="U3" s="239" t="s">
         <v>263</v>
       </c>
-      <c r="V3" s="239"/>
-      <c r="W3" s="240">
+      <c r="V3" s="240"/>
+      <c r="W3" s="241">
         <v>43714</v>
       </c>
-      <c r="X3" s="241"/>
-      <c r="Y3" s="241"/>
-      <c r="Z3" s="241"/>
-      <c r="AA3" s="241"/>
-      <c r="AB3" s="241"/>
-      <c r="AC3" s="241"/>
-      <c r="AD3" s="241"/>
-      <c r="AE3" s="239"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="242"/>
+      <c r="AD3" s="242"/>
+      <c r="AE3" s="240"/>
       <c r="AF3" s="206"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -7712,20 +7706,20 @@
       <c r="C7" s="212"/>
       <c r="D7" s="212"/>
       <c r="E7" s="211"/>
-      <c r="F7" s="223" t="s">
+      <c r="F7" s="224" t="s">
         <v>259</v>
       </c>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="224"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="224"/>
-      <c r="Q7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="225"/>
+      <c r="L7" s="225"/>
+      <c r="M7" s="225"/>
+      <c r="N7" s="225"/>
+      <c r="O7" s="225"/>
+      <c r="P7" s="225"/>
+      <c r="Q7" s="226"/>
       <c r="R7" s="206"/>
       <c r="S7" s="206"/>
       <c r="T7" s="206"/>
@@ -7743,86 +7737,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="206"/>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="227" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="232" t="s">
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="233" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="233"/>
-      <c r="K8" s="233"/>
-      <c r="L8" s="233"/>
-      <c r="M8" s="233"/>
-      <c r="N8" s="233"/>
-      <c r="O8" s="233"/>
-      <c r="P8" s="233"/>
-      <c r="Q8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="234"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="235"/>
       <c r="R8" s="206"/>
       <c r="S8" s="206"/>
       <c r="T8" s="206"/>
       <c r="U8" s="206"/>
       <c r="V8" s="206"/>
-      <c r="W8" s="242" t="s">
+      <c r="W8" s="243" t="s">
         <v>257</v>
       </c>
-      <c r="X8" s="242"/>
-      <c r="Y8" s="242"/>
-      <c r="Z8" s="242" t="s">
+      <c r="X8" s="243"/>
+      <c r="Y8" s="243"/>
+      <c r="Z8" s="243" t="s">
         <v>256</v>
       </c>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="242" t="s">
+      <c r="AA8" s="243"/>
+      <c r="AB8" s="243"/>
+      <c r="AC8" s="243" t="s">
         <v>250</v>
       </c>
-      <c r="AD8" s="242"/>
-      <c r="AE8" s="242"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
       <c r="AF8" s="206"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="206"/>
-      <c r="B9" s="229"/>
-      <c r="C9" s="230"/>
-      <c r="D9" s="230"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="236"/>
-      <c r="L9" s="236"/>
-      <c r="M9" s="236"/>
-      <c r="N9" s="236"/>
-      <c r="O9" s="236"/>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="237"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="231"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="237"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="237"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="237"/>
+      <c r="L9" s="237"/>
+      <c r="M9" s="237"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="237"/>
+      <c r="P9" s="237"/>
+      <c r="Q9" s="238"/>
       <c r="R9" s="206"/>
       <c r="S9" s="206"/>
       <c r="T9" s="206"/>
       <c r="U9" s="206"/>
       <c r="V9" s="206"/>
-      <c r="W9" s="243" t="s">
+      <c r="W9" s="244" t="s">
         <v>255</v>
       </c>
-      <c r="X9" s="244"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="243" t="s">
+      <c r="X9" s="245"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="AA9" s="244"/>
-      <c r="AB9" s="245"/>
-      <c r="AC9" s="243" t="s">
+      <c r="AA9" s="245"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="AD9" s="244"/>
-      <c r="AE9" s="245"/>
+      <c r="AD9" s="245"/>
+      <c r="AE9" s="246"/>
       <c r="AF9" s="206"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -7848,15 +7842,15 @@
       <c r="T10" s="206"/>
       <c r="U10" s="206"/>
       <c r="V10" s="206"/>
-      <c r="W10" s="246"/>
-      <c r="X10" s="247"/>
-      <c r="Y10" s="248"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="247"/>
-      <c r="AB10" s="248"/>
-      <c r="AC10" s="246"/>
-      <c r="AD10" s="247"/>
-      <c r="AE10" s="248"/>
+      <c r="W10" s="247"/>
+      <c r="X10" s="248"/>
+      <c r="Y10" s="249"/>
+      <c r="Z10" s="247"/>
+      <c r="AA10" s="248"/>
+      <c r="AB10" s="249"/>
+      <c r="AC10" s="247"/>
+      <c r="AD10" s="248"/>
+      <c r="AE10" s="249"/>
       <c r="AF10" s="206"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -7882,15 +7876,15 @@
       <c r="T11" s="206"/>
       <c r="U11" s="206"/>
       <c r="V11" s="206"/>
-      <c r="W11" s="246"/>
-      <c r="X11" s="247"/>
-      <c r="Y11" s="248"/>
-      <c r="Z11" s="246"/>
-      <c r="AA11" s="247"/>
-      <c r="AB11" s="248"/>
-      <c r="AC11" s="246"/>
-      <c r="AD11" s="247"/>
-      <c r="AE11" s="248"/>
+      <c r="W11" s="247"/>
+      <c r="X11" s="248"/>
+      <c r="Y11" s="249"/>
+      <c r="Z11" s="247"/>
+      <c r="AA11" s="248"/>
+      <c r="AB11" s="249"/>
+      <c r="AC11" s="247"/>
+      <c r="AD11" s="248"/>
+      <c r="AE11" s="249"/>
       <c r="AF11" s="206"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -7916,15 +7910,15 @@
       <c r="T12" s="210"/>
       <c r="U12" s="210"/>
       <c r="V12" s="210"/>
-      <c r="W12" s="249"/>
-      <c r="X12" s="250"/>
-      <c r="Y12" s="251"/>
-      <c r="Z12" s="249"/>
-      <c r="AA12" s="250"/>
-      <c r="AB12" s="251"/>
-      <c r="AC12" s="249"/>
-      <c r="AD12" s="250"/>
-      <c r="AE12" s="251"/>
+      <c r="W12" s="250"/>
+      <c r="X12" s="251"/>
+      <c r="Y12" s="252"/>
+      <c r="Z12" s="250"/>
+      <c r="AA12" s="251"/>
+      <c r="AB12" s="252"/>
+      <c r="AC12" s="250"/>
+      <c r="AD12" s="251"/>
+      <c r="AE12" s="252"/>
       <c r="AF12" s="206"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -8019,106 +8013,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="206"/>
-      <c r="B16" s="252" t="s">
+      <c r="B16" s="253" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="252"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="252"/>
-      <c r="F16" s="252"/>
-      <c r="G16" s="252"/>
-      <c r="H16" s="252"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="252"/>
-      <c r="K16" s="252"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="252"/>
-      <c r="N16" s="252"/>
-      <c r="O16" s="252"/>
-      <c r="P16" s="252"/>
-      <c r="Q16" s="252"/>
-      <c r="R16" s="252"/>
-      <c r="S16" s="252"/>
-      <c r="T16" s="252"/>
-      <c r="U16" s="252"/>
-      <c r="V16" s="252"/>
-      <c r="W16" s="252"/>
-      <c r="X16" s="252"/>
-      <c r="Y16" s="252"/>
-      <c r="Z16" s="252"/>
-      <c r="AA16" s="252"/>
-      <c r="AB16" s="252"/>
-      <c r="AC16" s="252"/>
-      <c r="AD16" s="252"/>
-      <c r="AE16" s="252"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="253"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="253"/>
+      <c r="K16" s="253"/>
+      <c r="L16" s="253"/>
+      <c r="M16" s="253"/>
+      <c r="N16" s="253"/>
+      <c r="O16" s="253"/>
+      <c r="P16" s="253"/>
+      <c r="Q16" s="253"/>
+      <c r="R16" s="253"/>
+      <c r="S16" s="253"/>
+      <c r="T16" s="253"/>
+      <c r="U16" s="253"/>
+      <c r="V16" s="253"/>
+      <c r="W16" s="253"/>
+      <c r="X16" s="253"/>
+      <c r="Y16" s="253"/>
+      <c r="Z16" s="253"/>
+      <c r="AA16" s="253"/>
+      <c r="AB16" s="253"/>
+      <c r="AC16" s="253"/>
+      <c r="AD16" s="253"/>
+      <c r="AE16" s="253"/>
       <c r="AF16" s="206"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="206"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="252"/>
-      <c r="D17" s="252"/>
-      <c r="E17" s="252"/>
-      <c r="F17" s="252"/>
-      <c r="G17" s="252"/>
-      <c r="H17" s="252"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="252"/>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="M17" s="252"/>
-      <c r="N17" s="252"/>
-      <c r="O17" s="252"/>
-      <c r="P17" s="252"/>
-      <c r="Q17" s="252"/>
-      <c r="R17" s="252"/>
-      <c r="S17" s="252"/>
-      <c r="T17" s="252"/>
-      <c r="U17" s="252"/>
-      <c r="V17" s="252"/>
-      <c r="W17" s="252"/>
-      <c r="X17" s="252"/>
-      <c r="Y17" s="252"/>
-      <c r="Z17" s="252"/>
-      <c r="AA17" s="252"/>
-      <c r="AB17" s="252"/>
-      <c r="AC17" s="252"/>
-      <c r="AD17" s="252"/>
-      <c r="AE17" s="252"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
+      <c r="L17" s="253"/>
+      <c r="M17" s="253"/>
+      <c r="N17" s="253"/>
+      <c r="O17" s="253"/>
+      <c r="P17" s="253"/>
+      <c r="Q17" s="253"/>
+      <c r="R17" s="253"/>
+      <c r="S17" s="253"/>
+      <c r="T17" s="253"/>
+      <c r="U17" s="253"/>
+      <c r="V17" s="253"/>
+      <c r="W17" s="253"/>
+      <c r="X17" s="253"/>
+      <c r="Y17" s="253"/>
+      <c r="Z17" s="253"/>
+      <c r="AA17" s="253"/>
+      <c r="AB17" s="253"/>
+      <c r="AC17" s="253"/>
+      <c r="AD17" s="253"/>
+      <c r="AE17" s="253"/>
       <c r="AF17" s="206"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="206"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="252"/>
-      <c r="F18" s="252"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="252"/>
-      <c r="N18" s="252"/>
-      <c r="O18" s="252"/>
-      <c r="P18" s="252"/>
-      <c r="Q18" s="252"/>
-      <c r="R18" s="252"/>
-      <c r="S18" s="252"/>
-      <c r="T18" s="252"/>
-      <c r="U18" s="252"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="252"/>
-      <c r="X18" s="252"/>
-      <c r="Y18" s="252"/>
-      <c r="Z18" s="252"/>
-      <c r="AA18" s="252"/>
-      <c r="AB18" s="252"/>
-      <c r="AC18" s="252"/>
-      <c r="AD18" s="252"/>
-      <c r="AE18" s="252"/>
+      <c r="B18" s="253"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="253"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="253"/>
+      <c r="N18" s="253"/>
+      <c r="O18" s="253"/>
+      <c r="P18" s="253"/>
+      <c r="Q18" s="253"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="253"/>
+      <c r="V18" s="253"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="253"/>
+      <c r="Y18" s="253"/>
+      <c r="Z18" s="253"/>
+      <c r="AA18" s="253"/>
+      <c r="AB18" s="253"/>
+      <c r="AC18" s="253"/>
+      <c r="AD18" s="253"/>
+      <c r="AE18" s="253"/>
       <c r="AF18" s="206"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -8257,392 +8251,392 @@
     </row>
     <row r="23" spans="1:32" s="207" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="208"/>
-      <c r="B23" s="238" t="s">
+      <c r="B23" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="241"/>
-      <c r="D23" s="241"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="238" t="s">
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="240"/>
+      <c r="F23" s="239" t="s">
         <v>252</v>
       </c>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="238" t="s">
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="240"/>
+      <c r="J23" s="239" t="s">
         <v>251</v>
       </c>
-      <c r="K23" s="241"/>
-      <c r="L23" s="241"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="241"/>
-      <c r="O23" s="241"/>
-      <c r="P23" s="241"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="241"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="241"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="241"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="241"/>
-      <c r="AB23" s="239"/>
-      <c r="AC23" s="238" t="s">
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
+      <c r="Q23" s="242"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="242"/>
+      <c r="X23" s="242"/>
+      <c r="Y23" s="242"/>
+      <c r="Z23" s="242"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="240"/>
+      <c r="AC23" s="239" t="s">
         <v>250</v>
       </c>
-      <c r="AD23" s="241"/>
-      <c r="AE23" s="239"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="240"/>
       <c r="AF23" s="208"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="206"/>
-      <c r="B24" s="238" t="s">
+      <c r="B24" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="241"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="253">
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="240"/>
+      <c r="F24" s="254">
         <v>43714</v>
       </c>
-      <c r="G24" s="254"/>
-      <c r="H24" s="254"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="238" t="s">
+      <c r="G24" s="255"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="239" t="s">
         <v>249</v>
       </c>
-      <c r="K24" s="241"/>
-      <c r="L24" s="241"/>
-      <c r="M24" s="241"/>
-      <c r="N24" s="241"/>
-      <c r="O24" s="241"/>
-      <c r="P24" s="241"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="239"/>
-      <c r="AC24" s="238" t="s">
+      <c r="K24" s="242"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="242"/>
+      <c r="N24" s="242"/>
+      <c r="O24" s="242"/>
+      <c r="P24" s="242"/>
+      <c r="Q24" s="242"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="242"/>
+      <c r="T24" s="242"/>
+      <c r="U24" s="242"/>
+      <c r="V24" s="242"/>
+      <c r="W24" s="242"/>
+      <c r="X24" s="242"/>
+      <c r="Y24" s="242"/>
+      <c r="Z24" s="242"/>
+      <c r="AA24" s="242"/>
+      <c r="AB24" s="240"/>
+      <c r="AC24" s="239" t="s">
         <v>173</v>
       </c>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="239"/>
+      <c r="AD24" s="242"/>
+      <c r="AE24" s="240"/>
       <c r="AF24" s="206"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="206"/>
-      <c r="B25" s="238"/>
-      <c r="C25" s="241"/>
-      <c r="D25" s="241"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="241"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="241"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="239"/>
-      <c r="AC25" s="238"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="239"/>
+      <c r="B25" s="239"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="255"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="239"/>
+      <c r="K25" s="242"/>
+      <c r="L25" s="242"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="242"/>
+      <c r="O25" s="242"/>
+      <c r="P25" s="242"/>
+      <c r="Q25" s="242"/>
+      <c r="R25" s="242"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="242"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="242"/>
+      <c r="W25" s="242"/>
+      <c r="X25" s="242"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="242"/>
+      <c r="AA25" s="242"/>
+      <c r="AB25" s="240"/>
+      <c r="AC25" s="239"/>
+      <c r="AD25" s="242"/>
+      <c r="AE25" s="240"/>
       <c r="AF25" s="206"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="206"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="241"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="254"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="241"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="241"/>
-      <c r="AA26" s="241"/>
-      <c r="AB26" s="239"/>
-      <c r="AC26" s="238"/>
-      <c r="AD26" s="241"/>
-      <c r="AE26" s="239"/>
+      <c r="B26" s="239"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="240"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="255"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="242"/>
+      <c r="N26" s="242"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="242"/>
+      <c r="Q26" s="242"/>
+      <c r="R26" s="242"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="242"/>
+      <c r="U26" s="242"/>
+      <c r="V26" s="242"/>
+      <c r="W26" s="242"/>
+      <c r="X26" s="242"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="242"/>
+      <c r="AB26" s="240"/>
+      <c r="AC26" s="239"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="240"/>
       <c r="AF26" s="206"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="206"/>
-      <c r="B27" s="238"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="253"/>
-      <c r="G27" s="254"/>
-      <c r="H27" s="254"/>
-      <c r="I27" s="255"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="257"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="257"/>
-      <c r="N27" s="257"/>
-      <c r="O27" s="257"/>
-      <c r="P27" s="257"/>
-      <c r="Q27" s="257"/>
-      <c r="R27" s="257"/>
-      <c r="S27" s="257"/>
-      <c r="T27" s="257"/>
-      <c r="U27" s="257"/>
-      <c r="V27" s="257"/>
-      <c r="W27" s="257"/>
-      <c r="X27" s="257"/>
-      <c r="Y27" s="257"/>
-      <c r="Z27" s="257"/>
-      <c r="AA27" s="257"/>
-      <c r="AB27" s="258"/>
-      <c r="AC27" s="238"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="239"/>
+      <c r="B27" s="239"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="240"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="255"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="258"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
+      <c r="P27" s="258"/>
+      <c r="Q27" s="258"/>
+      <c r="R27" s="258"/>
+      <c r="S27" s="258"/>
+      <c r="T27" s="258"/>
+      <c r="U27" s="258"/>
+      <c r="V27" s="258"/>
+      <c r="W27" s="258"/>
+      <c r="X27" s="258"/>
+      <c r="Y27" s="258"/>
+      <c r="Z27" s="258"/>
+      <c r="AA27" s="258"/>
+      <c r="AB27" s="259"/>
+      <c r="AC27" s="239"/>
+      <c r="AD27" s="242"/>
+      <c r="AE27" s="240"/>
       <c r="AF27" s="206"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="206"/>
-      <c r="B28" s="238"/>
-      <c r="C28" s="241"/>
-      <c r="D28" s="241"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="253"/>
-      <c r="G28" s="254"/>
-      <c r="H28" s="254"/>
-      <c r="I28" s="255"/>
-      <c r="J28" s="256"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="257"/>
-      <c r="N28" s="257"/>
-      <c r="O28" s="257"/>
-      <c r="P28" s="257"/>
-      <c r="Q28" s="257"/>
-      <c r="R28" s="257"/>
-      <c r="S28" s="257"/>
-      <c r="T28" s="257"/>
-      <c r="U28" s="257"/>
-      <c r="V28" s="257"/>
-      <c r="W28" s="257"/>
-      <c r="X28" s="257"/>
-      <c r="Y28" s="257"/>
-      <c r="Z28" s="257"/>
-      <c r="AA28" s="257"/>
-      <c r="AB28" s="258"/>
-      <c r="AC28" s="238"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="239"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="255"/>
+      <c r="H28" s="255"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="257"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="258"/>
+      <c r="O28" s="258"/>
+      <c r="P28" s="258"/>
+      <c r="Q28" s="258"/>
+      <c r="R28" s="258"/>
+      <c r="S28" s="258"/>
+      <c r="T28" s="258"/>
+      <c r="U28" s="258"/>
+      <c r="V28" s="258"/>
+      <c r="W28" s="258"/>
+      <c r="X28" s="258"/>
+      <c r="Y28" s="258"/>
+      <c r="Z28" s="258"/>
+      <c r="AA28" s="258"/>
+      <c r="AB28" s="259"/>
+      <c r="AC28" s="239"/>
+      <c r="AD28" s="242"/>
+      <c r="AE28" s="240"/>
       <c r="AF28" s="206"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="206"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="253"/>
-      <c r="G29" s="254"/>
-      <c r="H29" s="254"/>
-      <c r="I29" s="255"/>
-      <c r="J29" s="256"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="257"/>
-      <c r="N29" s="257"/>
-      <c r="O29" s="257"/>
-      <c r="P29" s="257"/>
-      <c r="Q29" s="257"/>
-      <c r="R29" s="257"/>
-      <c r="S29" s="257"/>
-      <c r="T29" s="257"/>
-      <c r="U29" s="257"/>
-      <c r="V29" s="257"/>
-      <c r="W29" s="257"/>
-      <c r="X29" s="257"/>
-      <c r="Y29" s="257"/>
-      <c r="Z29" s="257"/>
-      <c r="AA29" s="257"/>
-      <c r="AB29" s="258"/>
-      <c r="AC29" s="238"/>
-      <c r="AD29" s="241"/>
-      <c r="AE29" s="239"/>
+      <c r="B29" s="239"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="240"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="255"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="257"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="258"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="258"/>
+      <c r="O29" s="258"/>
+      <c r="P29" s="258"/>
+      <c r="Q29" s="258"/>
+      <c r="R29" s="258"/>
+      <c r="S29" s="258"/>
+      <c r="T29" s="258"/>
+      <c r="U29" s="258"/>
+      <c r="V29" s="258"/>
+      <c r="W29" s="258"/>
+      <c r="X29" s="258"/>
+      <c r="Y29" s="258"/>
+      <c r="Z29" s="258"/>
+      <c r="AA29" s="258"/>
+      <c r="AB29" s="259"/>
+      <c r="AC29" s="239"/>
+      <c r="AD29" s="242"/>
+      <c r="AE29" s="240"/>
       <c r="AF29" s="206"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="206"/>
-      <c r="B30" s="238"/>
-      <c r="C30" s="241"/>
-      <c r="D30" s="241"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="253"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="254"/>
-      <c r="I30" s="255"/>
-      <c r="J30" s="256"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="257"/>
-      <c r="M30" s="257"/>
-      <c r="N30" s="257"/>
-      <c r="O30" s="257"/>
-      <c r="P30" s="257"/>
-      <c r="Q30" s="257"/>
-      <c r="R30" s="257"/>
-      <c r="S30" s="257"/>
-      <c r="T30" s="257"/>
-      <c r="U30" s="257"/>
-      <c r="V30" s="257"/>
-      <c r="W30" s="257"/>
-      <c r="X30" s="257"/>
-      <c r="Y30" s="257"/>
-      <c r="Z30" s="257"/>
-      <c r="AA30" s="257"/>
-      <c r="AB30" s="258"/>
-      <c r="AC30" s="238"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="239"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="240"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="257"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
+      <c r="O30" s="258"/>
+      <c r="P30" s="258"/>
+      <c r="Q30" s="258"/>
+      <c r="R30" s="258"/>
+      <c r="S30" s="258"/>
+      <c r="T30" s="258"/>
+      <c r="U30" s="258"/>
+      <c r="V30" s="258"/>
+      <c r="W30" s="258"/>
+      <c r="X30" s="258"/>
+      <c r="Y30" s="258"/>
+      <c r="Z30" s="258"/>
+      <c r="AA30" s="258"/>
+      <c r="AB30" s="259"/>
+      <c r="AC30" s="239"/>
+      <c r="AD30" s="242"/>
+      <c r="AE30" s="240"/>
       <c r="AF30" s="206"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="206"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="254"/>
-      <c r="H31" s="254"/>
-      <c r="I31" s="255"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="257"/>
-      <c r="Q31" s="257"/>
-      <c r="R31" s="257"/>
-      <c r="S31" s="257"/>
-      <c r="T31" s="257"/>
-      <c r="U31" s="257"/>
-      <c r="V31" s="257"/>
-      <c r="W31" s="257"/>
-      <c r="X31" s="257"/>
-      <c r="Y31" s="257"/>
-      <c r="Z31" s="257"/>
-      <c r="AA31" s="257"/>
-      <c r="AB31" s="258"/>
-      <c r="AC31" s="238"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="239"/>
+      <c r="B31" s="239"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="242"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="257"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="258"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="258"/>
+      <c r="O31" s="258"/>
+      <c r="P31" s="258"/>
+      <c r="Q31" s="258"/>
+      <c r="R31" s="258"/>
+      <c r="S31" s="258"/>
+      <c r="T31" s="258"/>
+      <c r="U31" s="258"/>
+      <c r="V31" s="258"/>
+      <c r="W31" s="258"/>
+      <c r="X31" s="258"/>
+      <c r="Y31" s="258"/>
+      <c r="Z31" s="258"/>
+      <c r="AA31" s="258"/>
+      <c r="AB31" s="259"/>
+      <c r="AC31" s="239"/>
+      <c r="AD31" s="242"/>
+      <c r="AE31" s="240"/>
       <c r="AF31" s="206"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="206"/>
-      <c r="B32" s="238"/>
-      <c r="C32" s="241"/>
-      <c r="D32" s="241"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="254"/>
-      <c r="H32" s="254"/>
-      <c r="I32" s="255"/>
-      <c r="J32" s="256"/>
-      <c r="K32" s="257"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="257"/>
-      <c r="N32" s="257"/>
-      <c r="O32" s="257"/>
-      <c r="P32" s="257"/>
-      <c r="Q32" s="257"/>
-      <c r="R32" s="257"/>
-      <c r="S32" s="257"/>
-      <c r="T32" s="257"/>
-      <c r="U32" s="257"/>
-      <c r="V32" s="257"/>
-      <c r="W32" s="257"/>
-      <c r="X32" s="257"/>
-      <c r="Y32" s="257"/>
-      <c r="Z32" s="257"/>
-      <c r="AA32" s="257"/>
-      <c r="AB32" s="258"/>
-      <c r="AC32" s="238"/>
-      <c r="AD32" s="241"/>
-      <c r="AE32" s="239"/>
+      <c r="B32" s="239"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="257"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="258"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="258"/>
+      <c r="O32" s="258"/>
+      <c r="P32" s="258"/>
+      <c r="Q32" s="258"/>
+      <c r="R32" s="258"/>
+      <c r="S32" s="258"/>
+      <c r="T32" s="258"/>
+      <c r="U32" s="258"/>
+      <c r="V32" s="258"/>
+      <c r="W32" s="258"/>
+      <c r="X32" s="258"/>
+      <c r="Y32" s="258"/>
+      <c r="Z32" s="258"/>
+      <c r="AA32" s="258"/>
+      <c r="AB32" s="259"/>
+      <c r="AC32" s="239"/>
+      <c r="AD32" s="242"/>
+      <c r="AE32" s="240"/>
       <c r="AF32" s="206"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="206"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="254"/>
-      <c r="H33" s="254"/>
-      <c r="I33" s="255"/>
-      <c r="J33" s="256"/>
-      <c r="K33" s="257"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="257"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="257"/>
-      <c r="P33" s="257"/>
-      <c r="Q33" s="257"/>
-      <c r="R33" s="257"/>
-      <c r="S33" s="257"/>
-      <c r="T33" s="257"/>
-      <c r="U33" s="257"/>
-      <c r="V33" s="257"/>
-      <c r="W33" s="257"/>
-      <c r="X33" s="257"/>
-      <c r="Y33" s="257"/>
-      <c r="Z33" s="257"/>
-      <c r="AA33" s="257"/>
-      <c r="AB33" s="258"/>
-      <c r="AC33" s="238"/>
-      <c r="AD33" s="241"/>
-      <c r="AE33" s="239"/>
+      <c r="B33" s="239"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="240"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="255"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="257"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="258"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="258"/>
+      <c r="P33" s="258"/>
+      <c r="Q33" s="258"/>
+      <c r="R33" s="258"/>
+      <c r="S33" s="258"/>
+      <c r="T33" s="258"/>
+      <c r="U33" s="258"/>
+      <c r="V33" s="258"/>
+      <c r="W33" s="258"/>
+      <c r="X33" s="258"/>
+      <c r="Y33" s="258"/>
+      <c r="Z33" s="258"/>
+      <c r="AA33" s="258"/>
+      <c r="AB33" s="259"/>
+      <c r="AC33" s="239"/>
+      <c r="AD33" s="242"/>
+      <c r="AE33" s="240"/>
       <c r="AF33" s="206"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -8788,10 +8782,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -8810,10 +8804,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -8828,12 +8822,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -8856,42 +8850,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>181</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -8912,10 +8906,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -8936,10 +8930,10 @@
       <c r="B11" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="286"/>
       <c r="E11" s="111" t="s">
         <v>49</v>
       </c>
@@ -8960,10 +8954,10 @@
       <c r="B12" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="285" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="285"/>
+      <c r="D12" s="286"/>
       <c r="E12" s="111" t="s">
         <v>49</v>
       </c>
@@ -8984,10 +8978,10 @@
       <c r="B13" s="146" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="285" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="285"/>
+      <c r="D13" s="286"/>
       <c r="E13" s="111" t="s">
         <v>35</v>
       </c>
@@ -9008,10 +9002,10 @@
       <c r="B14" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="332" t="s">
+      <c r="C14" s="333" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="333"/>
+      <c r="D14" s="334"/>
       <c r="E14" s="153" t="s">
         <v>35</v>
       </c>
@@ -9051,10 +9045,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="269"/>
+      <c r="C17" s="270"/>
       <c r="D17" s="134" t="s">
         <v>9</v>
       </c>
@@ -9071,11 +9065,11 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="275"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="315"/>
-      <c r="E18" s="316"/>
-      <c r="F18" s="317"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="316"/>
+      <c r="E18" s="317"/>
+      <c r="F18" s="318"/>
       <c r="G18" s="72"/>
       <c r="H18" s="73"/>
     </row>
@@ -9108,15 +9102,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="267" t="s">
+      <c r="C21" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="268"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="267" t="s">
+      <c r="D21" s="269"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="305"/>
+      <c r="G21" s="306"/>
       <c r="H21" s="47" t="s">
         <v>14</v>
       </c>
@@ -9128,15 +9122,15 @@
       <c r="B22" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="327" t="s">
+      <c r="C22" s="328" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="328"/>
-      <c r="E22" s="329"/>
-      <c r="F22" s="330" t="s">
+      <c r="D22" s="329"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="331" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="331"/>
+      <c r="G22" s="332"/>
       <c r="H22" s="140" t="s">
         <v>158</v>
       </c>
@@ -9170,15 +9164,15 @@
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="267" t="s">
+      <c r="C25" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="268"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="270" t="s">
+      <c r="D25" s="269"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="271"/>
+      <c r="G25" s="272"/>
       <c r="H25" s="38" t="s">
         <v>17</v>
       </c>
@@ -9190,15 +9184,15 @@
       <c r="B26" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="315" t="s">
+      <c r="C26" s="316" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="316"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="315" t="s">
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
+      <c r="F26" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="317"/>
+      <c r="G26" s="318"/>
       <c r="H26" s="137" t="s">
         <v>155</v>
       </c>
@@ -9275,10 +9269,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -9297,10 +9291,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -9319,12 +9313,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -9347,42 +9341,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -9403,10 +9397,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -9427,10 +9421,10 @@
       <c r="B11" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>186</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -9451,10 +9445,10 @@
       <c r="B12" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="313" t="s">
+      <c r="C12" s="314" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="314"/>
+      <c r="D12" s="315"/>
       <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
@@ -9494,10 +9488,10 @@
       <c r="A15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="269"/>
+      <c r="C15" s="270"/>
       <c r="D15" s="158" t="s">
         <v>9</v>
       </c>
@@ -9514,15 +9508,15 @@
       <c r="A16" s="71">
         <v>1</v>
       </c>
-      <c r="B16" s="275" t="s">
+      <c r="B16" s="276" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="276"/>
-      <c r="D16" s="315" t="s">
+      <c r="C16" s="277"/>
+      <c r="D16" s="316" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="316"/>
-      <c r="F16" s="317"/>
+      <c r="E16" s="317"/>
+      <c r="F16" s="318"/>
       <c r="G16" s="72" t="s">
         <v>54</v>
       </c>
@@ -9559,15 +9553,15 @@
       <c r="B19" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="267" t="s">
+      <c r="C19" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="268"/>
-      <c r="E19" s="269"/>
-      <c r="F19" s="267" t="s">
+      <c r="D19" s="269"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="305"/>
+      <c r="G19" s="306"/>
       <c r="H19" s="47" t="s">
         <v>14</v>
       </c>
@@ -9579,15 +9573,15 @@
       <c r="B20" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="318" t="s">
+      <c r="C20" s="319" t="s">
         <v>192</v>
       </c>
-      <c r="D20" s="319"/>
-      <c r="E20" s="320"/>
-      <c r="F20" s="318" t="s">
+      <c r="D20" s="320"/>
+      <c r="E20" s="321"/>
+      <c r="F20" s="319" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="320"/>
+      <c r="G20" s="321"/>
       <c r="H20" s="161" t="s">
         <v>190</v>
       </c>
@@ -9621,15 +9615,15 @@
       <c r="B23" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="267" t="s">
+      <c r="C23" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="268"/>
-      <c r="E23" s="269"/>
-      <c r="F23" s="270" t="s">
+      <c r="D23" s="269"/>
+      <c r="E23" s="270"/>
+      <c r="F23" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="271"/>
+      <c r="G23" s="272"/>
       <c r="H23" s="38" t="s">
         <v>17</v>
       </c>
@@ -9641,15 +9635,15 @@
       <c r="B24" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="315" t="s">
+      <c r="C24" s="316" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="316"/>
-      <c r="E24" s="317"/>
-      <c r="F24" s="315" t="s">
+      <c r="D24" s="317"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="316" t="s">
         <v>188</v>
       </c>
-      <c r="G24" s="317"/>
+      <c r="G24" s="318"/>
       <c r="H24" s="137" t="s">
         <v>187</v>
       </c>
@@ -9690,8 +9684,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -9724,10 +9718,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="199"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -9746,10 +9740,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="199"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -9768,12 +9762,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="199"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -9796,42 +9790,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="C6" s="260" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="199" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="C7" s="260" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="199" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -9852,10 +9846,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -9876,10 +9870,10 @@
       <c r="B11" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -9896,12 +9890,12 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1">
       <c r="A12" s="174"/>
       <c r="B12" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="C12" s="313" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="314" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="314"/>
+      <c r="D12" s="315"/>
       <c r="E12" s="111" t="s">
         <v>35</v>
       </c>
@@ -9915,13 +9909,13 @@
     </row>
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="174"/>
-      <c r="B13" s="348" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="308" t="s">
+      <c r="B13" s="223" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="309" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="309"/>
+      <c r="D13" s="310"/>
       <c r="E13" s="66" t="s">
         <v>217</v>
       </c>
@@ -9964,10 +9958,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="269"/>
+      <c r="C17" s="270"/>
       <c r="D17" s="177" t="s">
         <v>9</v>
       </c>
@@ -9984,11 +9978,11 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="275"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="315"/>
-      <c r="E18" s="316"/>
-      <c r="F18" s="317"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="316"/>
+      <c r="E18" s="317"/>
+      <c r="F18" s="318"/>
       <c r="G18" s="72"/>
       <c r="H18" s="73"/>
     </row>
@@ -10021,15 +10015,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="267" t="s">
+      <c r="C21" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="268"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="267" t="s">
+      <c r="D21" s="269"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="305"/>
+      <c r="G21" s="306"/>
       <c r="H21" s="47" t="s">
         <v>14</v>
       </c>
@@ -10039,11 +10033,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="162"/>
-      <c r="C22" s="318"/>
-      <c r="D22" s="319"/>
-      <c r="E22" s="320"/>
-      <c r="F22" s="318"/>
-      <c r="G22" s="320"/>
+      <c r="C22" s="319"/>
+      <c r="D22" s="320"/>
+      <c r="E22" s="321"/>
+      <c r="F22" s="319"/>
+      <c r="G22" s="321"/>
       <c r="H22" s="161"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -10075,15 +10069,15 @@
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="267" t="s">
+      <c r="C25" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="268"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="270" t="s">
+      <c r="D25" s="269"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="271"/>
+      <c r="G25" s="272"/>
       <c r="H25" s="38" t="s">
         <v>17</v>
       </c>
@@ -10093,11 +10087,11 @@
         <v>1</v>
       </c>
       <c r="B26" s="138"/>
-      <c r="C26" s="315"/>
-      <c r="D26" s="316"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="315"/>
-      <c r="G26" s="317"/>
+      <c r="C26" s="316"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
+      <c r="F26" s="316"/>
+      <c r="G26" s="318"/>
       <c r="H26" s="137"/>
     </row>
   </sheetData>
@@ -10117,12 +10111,12 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="C8:H8"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10174,109 +10168,109 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="345"/>
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="342" t="s">
+      <c r="H2" s="343" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="343"/>
-      <c r="J2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="345"/>
       <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="336">
+      <c r="L2" s="337">
         <v>43725</v>
       </c>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="342" t="s">
+      <c r="B3" s="343" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="344"/>
+      <c r="C3" s="344"/>
+      <c r="D3" s="344"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="345"/>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="342" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="343"/>
-      <c r="J3" s="344"/>
+      <c r="H3" s="343" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="344"/>
+      <c r="J3" s="345"/>
       <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="337" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="337"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="337"/>
-      <c r="P3" s="337"/>
+      <c r="L3" s="338" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="342" t="s">
+      <c r="B4" s="343" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="343"/>
-      <c r="D4" s="343"/>
-      <c r="E4" s="343"/>
-      <c r="F4" s="343"/>
-      <c r="G4" s="343"/>
-      <c r="H4" s="343"/>
-      <c r="I4" s="343"/>
-      <c r="J4" s="344"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="344"/>
+      <c r="I4" s="344"/>
+      <c r="J4" s="345"/>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="337" t="s">
+      <c r="L4" s="338" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="337"/>
-      <c r="N4" s="337"/>
-      <c r="O4" s="337"/>
-      <c r="P4" s="337"/>
+      <c r="M4" s="338"/>
+      <c r="N4" s="338"/>
+      <c r="O4" s="338"/>
+      <c r="P4" s="338"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="345" t="s">
+      <c r="B5" s="346" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="346"/>
-      <c r="D5" s="346"/>
-      <c r="E5" s="346"/>
-      <c r="F5" s="346"/>
-      <c r="G5" s="346"/>
-      <c r="H5" s="346"/>
-      <c r="I5" s="346"/>
-      <c r="J5" s="346"/>
-      <c r="K5" s="346"/>
-      <c r="L5" s="346"/>
-      <c r="M5" s="346"/>
-      <c r="N5" s="346"/>
-      <c r="O5" s="346"/>
-      <c r="P5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="348"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="6" t="s">
@@ -10324,17 +10318,17 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="338" t="s">
+      <c r="F8" s="339" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="338"/>
-      <c r="H8" s="338"/>
-      <c r="I8" s="338"/>
-      <c r="J8" s="338"/>
-      <c r="K8" s="338"/>
-      <c r="L8" s="338"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="338"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
       <c r="O8" s="130"/>
       <c r="P8" s="9"/>
     </row>
@@ -10376,14 +10370,14 @@
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="339" t="s">
+      <c r="B10" s="340" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="334" t="s">
+      <c r="C10" s="335" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="335"/>
-      <c r="E10" s="335"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
       <c r="F10" s="12" t="s">
         <v>41</v>
       </c>
@@ -10416,12 +10410,12 @@
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="340"/>
-      <c r="C11" s="334" t="s">
+      <c r="B11" s="341"/>
+      <c r="C11" s="335" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="335"/>
-      <c r="E11" s="335"/>
+      <c r="D11" s="336"/>
+      <c r="E11" s="336"/>
       <c r="F11" s="12" t="s">
         <v>41</v>
       </c>
@@ -10454,12 +10448,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="340"/>
-      <c r="C12" s="334" t="s">
+      <c r="B12" s="341"/>
+      <c r="C12" s="335" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="335"/>
-      <c r="E12" s="335"/>
+      <c r="D12" s="336"/>
+      <c r="E12" s="336"/>
       <c r="F12" s="12" t="s">
         <v>149</v>
       </c>
@@ -10492,12 +10486,12 @@
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="340"/>
-      <c r="C13" s="334" t="s">
+      <c r="B13" s="341"/>
+      <c r="C13" s="335" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="335"/>
-      <c r="E13" s="335"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
       <c r="F13" s="12" t="s">
         <v>41</v>
       </c>
@@ -10530,12 +10524,12 @@
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="340"/>
-      <c r="C14" s="334" t="s">
+      <c r="B14" s="341"/>
+      <c r="C14" s="335" t="s">
         <v>141</v>
       </c>
-      <c r="D14" s="335"/>
-      <c r="E14" s="335"/>
+      <c r="D14" s="336"/>
+      <c r="E14" s="336"/>
       <c r="F14" s="12" t="s">
         <v>150</v>
       </c>
@@ -10568,12 +10562,12 @@
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="340"/>
-      <c r="C15" s="334" t="s">
+      <c r="B15" s="341"/>
+      <c r="C15" s="335" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="335"/>
-      <c r="E15" s="335"/>
+      <c r="D15" s="336"/>
+      <c r="E15" s="336"/>
       <c r="F15" s="12" t="s">
         <v>41</v>
       </c>
@@ -10606,12 +10600,12 @@
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="340"/>
-      <c r="C16" s="334" t="s">
+      <c r="B16" s="341"/>
+      <c r="C16" s="335" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="335"/>
-      <c r="E16" s="335"/>
+      <c r="D16" s="336"/>
+      <c r="E16" s="336"/>
       <c r="F16" s="12" t="s">
         <v>41</v>
       </c>
@@ -10644,12 +10638,12 @@
     </row>
     <row r="17" spans="1:16" ht="22.5" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="340"/>
-      <c r="C17" s="334" t="s">
+      <c r="B17" s="341"/>
+      <c r="C17" s="335" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="335"/>
-      <c r="E17" s="335"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="336"/>
       <c r="F17" s="12" t="s">
         <v>41</v>
       </c>
@@ -10682,12 +10676,12 @@
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="340"/>
-      <c r="C18" s="334" t="s">
+      <c r="B18" s="341"/>
+      <c r="C18" s="335" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="335"/>
-      <c r="E18" s="335"/>
+      <c r="D18" s="336"/>
+      <c r="E18" s="336"/>
       <c r="F18" s="12" t="s">
         <v>41</v>
       </c>
@@ -10720,12 +10714,12 @@
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="340"/>
-      <c r="C19" s="334" t="s">
+      <c r="B19" s="341"/>
+      <c r="C19" s="335" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="335"/>
-      <c r="E19" s="335"/>
+      <c r="D19" s="336"/>
+      <c r="E19" s="336"/>
       <c r="F19" s="12" t="s">
         <v>44</v>
       </c>
@@ -10758,12 +10752,12 @@
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="340"/>
-      <c r="C20" s="334" t="s">
+      <c r="B20" s="341"/>
+      <c r="C20" s="335" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="335"/>
-      <c r="E20" s="335"/>
+      <c r="D20" s="336"/>
+      <c r="E20" s="336"/>
       <c r="F20" s="12" t="s">
         <v>41</v>
       </c>
@@ -10796,7 +10790,7 @@
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="340"/>
+      <c r="B21" s="341"/>
       <c r="C21" s="13" t="s">
         <v>148</v>
       </c>
@@ -10834,7 +10828,7 @@
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="340"/>
+      <c r="B22" s="341"/>
       <c r="C22" s="13"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -10852,7 +10846,7 @@
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="340"/>
+      <c r="B23" s="341"/>
       <c r="C23" s="13"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -10870,7 +10864,7 @@
     </row>
     <row r="24" spans="1:16" ht="22.5" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="340"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="13"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -10888,7 +10882,7 @@
     </row>
     <row r="25" spans="1:16" ht="22.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="340"/>
+      <c r="B25" s="341"/>
       <c r="C25" s="13"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -10906,7 +10900,7 @@
     </row>
     <row r="26" spans="1:16" ht="22.5" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="340"/>
+      <c r="B26" s="341"/>
       <c r="C26" s="13"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -10924,7 +10918,7 @@
     </row>
     <row r="27" spans="1:16" ht="22.5" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="340"/>
+      <c r="B27" s="341"/>
       <c r="C27" s="13"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
@@ -10942,7 +10936,7 @@
     </row>
     <row r="28" spans="1:16" ht="22.5" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="340"/>
+      <c r="B28" s="341"/>
       <c r="C28" s="13"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10960,7 +10954,7 @@
     </row>
     <row r="29" spans="1:16" ht="22.5" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="340"/>
+      <c r="B29" s="341"/>
       <c r="C29" s="13"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
@@ -10978,7 +10972,7 @@
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="340"/>
+      <c r="B30" s="341"/>
       <c r="C30" s="13"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
@@ -10996,10 +10990,10 @@
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="340"/>
-      <c r="C31" s="334"/>
-      <c r="D31" s="335"/>
-      <c r="E31" s="335"/>
+      <c r="B31" s="341"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="336"/>
+      <c r="E31" s="336"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -11014,10 +11008,10 @@
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="340"/>
-      <c r="C32" s="334"/>
-      <c r="D32" s="335"/>
-      <c r="E32" s="335"/>
+      <c r="B32" s="341"/>
+      <c r="C32" s="335"/>
+      <c r="D32" s="336"/>
+      <c r="E32" s="336"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -11032,10 +11026,10 @@
     </row>
     <row r="33" spans="1:16" ht="23.25" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" s="340"/>
-      <c r="C33" s="334"/>
-      <c r="D33" s="335"/>
-      <c r="E33" s="335"/>
+      <c r="B33" s="341"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -11050,10 +11044,10 @@
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="340"/>
-      <c r="C34" s="334"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
+      <c r="B34" s="341"/>
+      <c r="C34" s="335"/>
+      <c r="D34" s="336"/>
+      <c r="E34" s="336"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -11068,10 +11062,10 @@
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="341"/>
-      <c r="C35" s="334"/>
-      <c r="D35" s="335"/>
-      <c r="E35" s="335"/>
+      <c r="B35" s="342"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -11165,7 +11159,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="38" zoomScaleNormal="44" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="38" zoomScaleNormal="44" workbookViewId="0">
       <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
@@ -11191,14 +11185,14 @@
       <c r="F1" s="201"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="259" t="s">
+      <c r="B2" s="263"/>
+      <c r="C2" s="260" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="198" t="s">
         <v>22</v>
       </c>
@@ -11207,14 +11201,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="261" t="s">
+      <c r="A3" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="262"/>
-      <c r="C3" s="259" t="s">
+      <c r="B3" s="263"/>
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="198" t="s">
         <v>23</v>
       </c>
@@ -11223,14 +11217,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="259" t="s">
+      <c r="B4" s="263"/>
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="260"/>
+      <c r="D4" s="261"/>
       <c r="E4" s="198" t="s">
         <v>24</v>
       </c>
@@ -11239,28 +11233,28 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="261" t="s">
+      <c r="A5" s="262" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="259" t="s">
+      <c r="B5" s="263"/>
+      <c r="C5" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="D5" s="260"/>
+      <c r="D5" s="261"/>
       <c r="E5" s="198" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="200"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="262" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="259" t="s">
+      <c r="B6" s="263"/>
+      <c r="C6" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="D6" s="260"/>
+      <c r="D6" s="261"/>
       <c r="E6" s="198" t="s">
         <v>26</v>
       </c>
@@ -11297,10 +11291,10 @@
       <c r="D9" s="190" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="265" t="s">
+      <c r="E9" s="266" t="s">
         <v>239</v>
       </c>
-      <c r="F9" s="266"/>
+      <c r="F9" s="267"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="166">
@@ -11315,10 +11309,10 @@
       <c r="D10" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E10" s="263" t="s">
+      <c r="E10" s="264" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="264"/>
+      <c r="F10" s="265"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="166">
@@ -11333,10 +11327,10 @@
       <c r="D11" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="263" t="s">
+      <c r="E11" s="264" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="264"/>
+      <c r="F11" s="265"/>
     </row>
     <row r="12" spans="1:6" ht="33.5" customHeight="1">
       <c r="A12" s="166">
@@ -11351,10 +11345,10 @@
       <c r="D12" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="E12" s="263" t="s">
+      <c r="E12" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="264"/>
+      <c r="F12" s="265"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="166">
@@ -11369,10 +11363,10 @@
       <c r="D13" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="263" t="s">
+      <c r="E13" s="264" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="264"/>
+      <c r="F13" s="265"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="166">
@@ -11387,10 +11381,10 @@
       <c r="D14" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E14" s="263" t="s">
+      <c r="E14" s="264" t="s">
         <v>232</v>
       </c>
-      <c r="F14" s="264"/>
+      <c r="F14" s="265"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="166">
@@ -11405,10 +11399,10 @@
       <c r="D15" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E15" s="263" t="s">
+      <c r="E15" s="264" t="s">
         <v>231</v>
       </c>
-      <c r="F15" s="264"/>
+      <c r="F15" s="265"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="166">
@@ -11423,10 +11417,10 @@
       <c r="D16" s="166" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="263" t="s">
+      <c r="E16" s="264" t="s">
         <v>229</v>
       </c>
-      <c r="F16" s="264"/>
+      <c r="F16" s="265"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="166">
@@ -11441,10 +11435,10 @@
       <c r="D17" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="263" t="s">
+      <c r="E17" s="264" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="264"/>
+      <c r="F17" s="265"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="166">
@@ -11459,10 +11453,10 @@
       <c r="D18" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="263" t="s">
+      <c r="E18" s="264" t="s">
         <v>226</v>
       </c>
-      <c r="F18" s="264"/>
+      <c r="F18" s="265"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="188" t="s">
@@ -11741,10 +11735,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -11763,10 +11757,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -11785,12 +11779,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -11813,42 +11807,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -11869,10 +11863,10 @@
       <c r="B10" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="283" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="284"/>
       <c r="E10" s="99" t="s">
         <v>1</v>
       </c>
@@ -11893,10 +11887,10 @@
       <c r="B11" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="285" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="286"/>
       <c r="E11" s="111" t="s">
         <v>49</v>
       </c>
@@ -11917,10 +11911,10 @@
       <c r="B12" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="287" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="288"/>
       <c r="E12" s="112" t="s">
         <v>35</v>
       </c>
@@ -11941,10 +11935,10 @@
       <c r="B13" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="286" t="s">
+      <c r="C13" s="287" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="287"/>
+      <c r="D13" s="288"/>
       <c r="E13" s="112" t="s">
         <v>35</v>
       </c>
@@ -11965,10 +11959,10 @@
       <c r="B14" s="120" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="288" t="s">
+      <c r="C14" s="289" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="289"/>
+      <c r="D14" s="290"/>
       <c r="E14" s="113" t="s">
         <v>49</v>
       </c>
@@ -11989,10 +11983,10 @@
       <c r="B15" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="290" t="s">
+      <c r="C15" s="291" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="291"/>
+      <c r="D15" s="292"/>
       <c r="E15" s="112" t="s">
         <v>35</v>
       </c>
@@ -12013,10 +12007,10 @@
       <c r="B16" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="290" t="s">
+      <c r="C16" s="291" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="291"/>
+      <c r="D16" s="292"/>
       <c r="E16" s="112" t="s">
         <v>35</v>
       </c>
@@ -12037,10 +12031,10 @@
       <c r="B17" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="290" t="s">
+      <c r="C17" s="291" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="291"/>
+      <c r="D17" s="292"/>
       <c r="E17" s="115" t="s">
         <v>49</v>
       </c>
@@ -12061,10 +12055,10 @@
       <c r="B18" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="290" t="s">
+      <c r="C18" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="291"/>
+      <c r="D18" s="292"/>
       <c r="E18" s="114" t="s">
         <v>49</v>
       </c>
@@ -12085,10 +12079,10 @@
       <c r="B19" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="290" t="s">
+      <c r="C19" s="291" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="291"/>
+      <c r="D19" s="292"/>
       <c r="E19" s="112" t="s">
         <v>35</v>
       </c>
@@ -12109,10 +12103,10 @@
       <c r="B20" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="290" t="s">
+      <c r="C20" s="291" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="291"/>
+      <c r="D20" s="292"/>
       <c r="E20" s="112" t="s">
         <v>35</v>
       </c>
@@ -12133,10 +12127,10 @@
       <c r="B21" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="290" t="s">
+      <c r="C21" s="291" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="291"/>
+      <c r="D21" s="292"/>
       <c r="E21" s="112" t="s">
         <v>35</v>
       </c>
@@ -12157,10 +12151,10 @@
       <c r="B22" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="290" t="s">
+      <c r="C22" s="291" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="291"/>
+      <c r="D22" s="292"/>
       <c r="E22" s="112" t="s">
         <v>35</v>
       </c>
@@ -12181,10 +12175,10 @@
       <c r="B23" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="296" t="s">
+      <c r="C23" s="297" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="297"/>
+      <c r="D23" s="298"/>
       <c r="E23" s="116" t="s">
         <v>49</v>
       </c>
@@ -12206,10 +12200,10 @@
       <c r="B24" s="125" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="292" t="s">
+      <c r="C24" s="293" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="293"/>
+      <c r="D24" s="294"/>
       <c r="E24" s="117" t="s">
         <v>49</v>
       </c>
@@ -12230,10 +12224,10 @@
       <c r="B25" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="294" t="s">
+      <c r="C25" s="295" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="295"/>
+      <c r="D25" s="296"/>
       <c r="E25" s="118" t="s">
         <v>49</v>
       </c>
@@ -12274,10 +12268,10 @@
       <c r="A28" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="267" t="s">
+      <c r="B28" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="269"/>
+      <c r="C28" s="270"/>
       <c r="D28" s="81" t="s">
         <v>9</v>
       </c>
@@ -12294,15 +12288,15 @@
       <c r="A29" s="71">
         <v>1</v>
       </c>
-      <c r="B29" s="275" t="s">
+      <c r="B29" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="276"/>
-      <c r="D29" s="272" t="s">
+      <c r="C29" s="277"/>
+      <c r="D29" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="273"/>
-      <c r="F29" s="274"/>
+      <c r="E29" s="274"/>
+      <c r="F29" s="275"/>
       <c r="G29" s="72" t="s">
         <v>54</v>
       </c>
@@ -12338,15 +12332,15 @@
       <c r="B32" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="277" t="s">
+      <c r="C32" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="278"/>
-      <c r="E32" s="279"/>
-      <c r="F32" s="277" t="s">
+      <c r="D32" s="279"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="280"/>
+      <c r="G32" s="281"/>
       <c r="H32" s="88" t="s">
         <v>14</v>
       </c>
@@ -12358,15 +12352,15 @@
       <c r="B33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="272" t="s">
+      <c r="C33" s="273" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="273"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="281" t="s">
+      <c r="D33" s="274"/>
+      <c r="E33" s="275"/>
+      <c r="F33" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="281"/>
+      <c r="G33" s="282"/>
       <c r="H33" s="89" t="s">
         <v>69</v>
       </c>
@@ -12399,15 +12393,15 @@
       <c r="B36" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="267" t="s">
+      <c r="C36" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="268"/>
-      <c r="E36" s="269"/>
-      <c r="F36" s="270" t="s">
+      <c r="D36" s="269"/>
+      <c r="E36" s="270"/>
+      <c r="F36" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="271"/>
+      <c r="G36" s="272"/>
       <c r="H36" s="38" t="s">
         <v>17</v>
       </c>
@@ -12419,15 +12413,15 @@
       <c r="B37" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="272" t="s">
+      <c r="C37" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="273"/>
-      <c r="E37" s="274"/>
-      <c r="F37" s="272" t="s">
+      <c r="D37" s="274"/>
+      <c r="E37" s="275"/>
+      <c r="F37" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="274"/>
+      <c r="G37" s="275"/>
       <c r="H37" s="75" t="s">
         <v>79</v>
       </c>
@@ -12515,10 +12509,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="23"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -12537,10 +12531,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -12559,12 +12553,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="23"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -12587,42 +12581,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -12643,10 +12637,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -12667,10 +12661,10 @@
       <c r="B11" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -12691,10 +12685,10 @@
       <c r="B12" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="306" t="s">
+      <c r="C12" s="307" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="307"/>
+      <c r="D12" s="308"/>
       <c r="E12" s="58" t="s">
         <v>67</v>
       </c>
@@ -12713,8 +12707,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="49"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="307"/>
+      <c r="C13" s="307"/>
+      <c r="D13" s="308"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="56"/>
@@ -12725,8 +12719,8 @@
         <v>4</v>
       </c>
       <c r="B14" s="76"/>
-      <c r="C14" s="308"/>
-      <c r="D14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="310"/>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
       <c r="G14" s="67"/>
@@ -12758,10 +12752,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="269"/>
+      <c r="C17" s="270"/>
       <c r="D17" s="43" t="s">
         <v>9</v>
       </c>
@@ -12778,15 +12772,15 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="276"/>
-      <c r="D18" s="272" t="s">
+      <c r="C18" s="277"/>
+      <c r="D18" s="273" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="273"/>
-      <c r="F18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="275"/>
       <c r="G18" s="72" t="s">
         <v>54</v>
       </c>
@@ -12823,15 +12817,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="267" t="s">
+      <c r="C21" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="268"/>
-      <c r="E21" s="269"/>
-      <c r="F21" s="267" t="s">
+      <c r="D21" s="269"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="305"/>
+      <c r="G21" s="306"/>
       <c r="H21" s="47" t="s">
         <v>14</v>
       </c>
@@ -12841,11 +12835,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="301"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="302"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -12853,11 +12847,11 @@
         <v>2</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="302"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="302"/>
-      <c r="G23" s="304"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="305"/>
+      <c r="F23" s="303"/>
+      <c r="G23" s="305"/>
       <c r="H23" s="52"/>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
@@ -12889,15 +12883,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="268"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="270" t="s">
+      <c r="D26" s="269"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="271"/>
+      <c r="G26" s="272"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -12909,15 +12903,15 @@
       <c r="B27" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="272" t="s">
+      <c r="C27" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="272" t="s">
+      <c r="D27" s="274"/>
+      <c r="E27" s="275"/>
+      <c r="F27" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="274"/>
+      <c r="G27" s="275"/>
       <c r="H27" s="75" t="s">
         <v>77</v>
       </c>
@@ -12996,10 +12990,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -13018,10 +13012,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -13040,12 +13034,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -13068,42 +13062,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -13124,10 +13118,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -13148,10 +13142,10 @@
       <c r="B11" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -13172,10 +13166,10 @@
       <c r="B12" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="311" t="s">
+      <c r="C12" s="312" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="312"/>
+      <c r="D12" s="313"/>
       <c r="E12" s="55" t="s">
         <v>49</v>
       </c>
@@ -13194,8 +13188,8 @@
         <v>3</v>
       </c>
       <c r="B13" s="49"/>
-      <c r="C13" s="306"/>
-      <c r="D13" s="307"/>
+      <c r="C13" s="307"/>
+      <c r="D13" s="308"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="56"/>
@@ -13206,8 +13200,8 @@
         <v>4</v>
       </c>
       <c r="B14" s="86"/>
-      <c r="C14" s="308"/>
-      <c r="D14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="310"/>
       <c r="E14" s="66"/>
       <c r="F14" s="66"/>
       <c r="G14" s="67"/>
@@ -13239,10 +13233,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="269"/>
+      <c r="C17" s="270"/>
       <c r="D17" s="81" t="s">
         <v>9</v>
       </c>
@@ -13259,15 +13253,15 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="276"/>
-      <c r="D18" s="272" t="s">
+      <c r="C18" s="277"/>
+      <c r="D18" s="273" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="273"/>
-      <c r="F18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="275"/>
       <c r="G18" s="72" t="s">
         <v>54</v>
       </c>
@@ -13279,15 +13273,15 @@
       <c r="A19" s="71">
         <v>2</v>
       </c>
-      <c r="B19" s="275" t="s">
+      <c r="B19" s="276" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="276"/>
-      <c r="D19" s="272" t="s">
+      <c r="C19" s="277"/>
+      <c r="D19" s="273" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="273"/>
-      <c r="F19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="275"/>
       <c r="G19" s="72" t="s">
         <v>54</v>
       </c>
@@ -13324,15 +13318,15 @@
       <c r="B22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="267" t="s">
+      <c r="C22" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="268"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="267" t="s">
+      <c r="D22" s="269"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="305"/>
+      <c r="G22" s="306"/>
       <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
@@ -13344,15 +13338,15 @@
       <c r="B23" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="272" t="s">
+      <c r="C23" s="273" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="273"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="272" t="s">
+      <c r="D23" s="274"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="274"/>
+      <c r="G23" s="275"/>
       <c r="H23" s="75" t="s">
         <v>77</v>
       </c>
@@ -13364,15 +13358,15 @@
       <c r="B24" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="272" t="s">
+      <c r="C24" s="273" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="273"/>
-      <c r="E24" s="274"/>
-      <c r="F24" s="272" t="s">
+      <c r="D24" s="274"/>
+      <c r="E24" s="275"/>
+      <c r="F24" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="274"/>
+      <c r="G24" s="275"/>
       <c r="H24" s="75" t="s">
         <v>121</v>
       </c>
@@ -13406,15 +13400,15 @@
       <c r="B27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="267" t="s">
+      <c r="C27" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="268"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="270" t="s">
+      <c r="D27" s="269"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="271"/>
+      <c r="G27" s="272"/>
       <c r="H27" s="38" t="s">
         <v>17</v>
       </c>
@@ -13426,15 +13420,15 @@
       <c r="B28" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="272" t="s">
+      <c r="C28" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="273"/>
-      <c r="E28" s="274"/>
-      <c r="F28" s="272" t="s">
+      <c r="D28" s="274"/>
+      <c r="E28" s="275"/>
+      <c r="F28" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="G28" s="274"/>
+      <c r="G28" s="275"/>
       <c r="H28" s="75" t="s">
         <v>77</v>
       </c>
@@ -13446,15 +13440,15 @@
       <c r="B29" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="272" t="s">
+      <c r="C29" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="273"/>
-      <c r="E29" s="274"/>
-      <c r="F29" s="272" t="s">
+      <c r="D29" s="274"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="273" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="274"/>
+      <c r="G29" s="275"/>
       <c r="H29" s="75" t="s">
         <v>121</v>
       </c>
@@ -13537,10 +13531,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -13559,10 +13553,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -13581,12 +13575,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -13609,42 +13603,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -13665,10 +13659,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -13689,10 +13683,10 @@
       <c r="B11" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -13713,10 +13707,10 @@
       <c r="B12" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="306" t="s">
+      <c r="C12" s="307" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="307"/>
+      <c r="D12" s="308"/>
       <c r="E12" s="58" t="s">
         <v>49</v>
       </c>
@@ -13737,10 +13731,10 @@
       <c r="B13" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="306" t="s">
+      <c r="C13" s="307" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="307"/>
+      <c r="D13" s="308"/>
       <c r="E13" s="50" t="s">
         <v>49</v>
       </c>
@@ -13761,10 +13755,10 @@
       <c r="B14" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="308" t="s">
+      <c r="C14" s="309" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="309"/>
+      <c r="D14" s="310"/>
       <c r="E14" s="66" t="s">
         <v>49</v>
       </c>
@@ -13806,10 +13800,10 @@
       <c r="A17" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="269"/>
+      <c r="C17" s="270"/>
       <c r="D17" s="81" t="s">
         <v>9</v>
       </c>
@@ -13826,15 +13820,15 @@
       <c r="A18" s="71">
         <v>1</v>
       </c>
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="276" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="276"/>
-      <c r="D18" s="272" t="s">
+      <c r="C18" s="277"/>
+      <c r="D18" s="273" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="273"/>
-      <c r="F18" s="274"/>
+      <c r="E18" s="274"/>
+      <c r="F18" s="275"/>
       <c r="G18" s="72" t="s">
         <v>54</v>
       </c>
@@ -13871,15 +13865,15 @@
       <c r="B21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="277" t="s">
+      <c r="C21" s="278" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="278"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="277" t="s">
+      <c r="D21" s="279"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="280"/>
+      <c r="G21" s="281"/>
       <c r="H21" s="88" t="s">
         <v>14</v>
       </c>
@@ -13891,15 +13885,15 @@
       <c r="B22" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="272" t="s">
+      <c r="C22" s="273" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="273"/>
-      <c r="E22" s="274"/>
-      <c r="F22" s="281" t="s">
+      <c r="D22" s="274"/>
+      <c r="E22" s="275"/>
+      <c r="F22" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="281"/>
+      <c r="G22" s="282"/>
       <c r="H22" s="89" t="s">
         <v>83</v>
       </c>
@@ -13911,15 +13905,15 @@
       <c r="B23" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="272" t="s">
+      <c r="C23" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="273"/>
-      <c r="E23" s="274"/>
-      <c r="F23" s="281" t="s">
+      <c r="D23" s="274"/>
+      <c r="E23" s="275"/>
+      <c r="F23" s="282" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="281"/>
+      <c r="G23" s="282"/>
       <c r="H23" s="89" t="s">
         <v>83</v>
       </c>
@@ -13953,15 +13947,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="268"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="270" t="s">
+      <c r="D26" s="269"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="271"/>
+      <c r="G26" s="272"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -13973,15 +13967,15 @@
       <c r="B27" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="272" t="s">
+      <c r="C27" s="273" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="273"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="272" t="s">
+      <c r="D27" s="274"/>
+      <c r="E27" s="275"/>
+      <c r="F27" s="273" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="274"/>
+      <c r="G27" s="275"/>
       <c r="H27" s="75" t="s">
         <v>133</v>
       </c>
@@ -14060,10 +14054,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -14082,10 +14076,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -14104,12 +14098,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -14132,42 +14126,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -14188,10 +14182,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -14212,10 +14206,10 @@
       <c r="B11" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -14236,10 +14230,10 @@
       <c r="B12" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="313" t="s">
+      <c r="C12" s="314" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="314"/>
+      <c r="D12" s="315"/>
       <c r="E12" s="50" t="s">
         <v>49</v>
       </c>
@@ -14260,10 +14254,10 @@
       <c r="B13" s="169" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="321" t="s">
+      <c r="C13" s="322" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="321"/>
+      <c r="D13" s="322"/>
       <c r="E13" s="168" t="s">
         <v>49</v>
       </c>
@@ -14303,10 +14297,10 @@
       <c r="A16" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="267" t="s">
+      <c r="B16" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="269"/>
+      <c r="C16" s="270"/>
       <c r="D16" s="158" t="s">
         <v>9</v>
       </c>
@@ -14323,15 +14317,15 @@
       <c r="A17" s="71">
         <v>1</v>
       </c>
-      <c r="B17" s="275" t="s">
+      <c r="B17" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="276"/>
-      <c r="D17" s="315" t="s">
+      <c r="C17" s="277"/>
+      <c r="D17" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="E17" s="316"/>
-      <c r="F17" s="317"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="318"/>
       <c r="G17" s="72" t="s">
         <v>54</v>
       </c>
@@ -14368,15 +14362,15 @@
       <c r="B20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="267" t="s">
+      <c r="C20" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="268"/>
-      <c r="E20" s="269"/>
-      <c r="F20" s="267" t="s">
+      <c r="D20" s="269"/>
+      <c r="E20" s="270"/>
+      <c r="F20" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="305"/>
+      <c r="G20" s="306"/>
       <c r="H20" s="47" t="s">
         <v>14</v>
       </c>
@@ -14388,15 +14382,15 @@
       <c r="B21" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="318" t="s">
+      <c r="C21" s="319" t="s">
         <v>208</v>
       </c>
-      <c r="D21" s="319"/>
-      <c r="E21" s="320"/>
-      <c r="F21" s="318" t="s">
+      <c r="D21" s="320"/>
+      <c r="E21" s="321"/>
+      <c r="F21" s="319" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="320"/>
+      <c r="G21" s="321"/>
       <c r="H21" s="161" t="s">
         <v>205</v>
       </c>
@@ -14408,15 +14402,15 @@
       <c r="B22" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C22" s="322" t="s">
+      <c r="C22" s="323" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="323"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="322" t="s">
+      <c r="D22" s="324"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="323" t="s">
         <v>206</v>
       </c>
-      <c r="G22" s="324"/>
+      <c r="G22" s="325"/>
       <c r="H22" s="165" t="s">
         <v>205</v>
       </c>
@@ -14450,15 +14444,15 @@
       <c r="B25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="267" t="s">
+      <c r="C25" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="268"/>
-      <c r="E25" s="269"/>
-      <c r="F25" s="270" t="s">
+      <c r="D25" s="269"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="271"/>
+      <c r="G25" s="272"/>
       <c r="H25" s="38" t="s">
         <v>17</v>
       </c>
@@ -14470,15 +14464,15 @@
       <c r="B26" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="315" t="s">
+      <c r="C26" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="D26" s="316"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="315" t="s">
+      <c r="D26" s="317"/>
+      <c r="E26" s="318"/>
+      <c r="F26" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="317"/>
+      <c r="G26" s="318"/>
       <c r="H26" s="137" t="s">
         <v>202</v>
       </c>
@@ -14556,10 +14550,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -14578,10 +14572,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -14600,12 +14594,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -14628,42 +14622,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>224</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -14684,10 +14678,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -14708,10 +14702,10 @@
       <c r="B11" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="311" t="s">
+      <c r="C11" s="312" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="312"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
@@ -14732,10 +14726,10 @@
       <c r="B12" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="306" t="s">
+      <c r="C12" s="307" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="307"/>
+      <c r="D12" s="308"/>
       <c r="E12" s="55" t="s">
         <v>49</v>
       </c>
@@ -14756,10 +14750,10 @@
       <c r="B13" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="306" t="s">
+      <c r="C13" s="307" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="307"/>
+      <c r="D13" s="308"/>
       <c r="E13" s="55" t="s">
         <v>220</v>
       </c>
@@ -14780,10 +14774,10 @@
       <c r="B14" s="173" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="306" t="s">
+      <c r="C14" s="307" t="s">
         <v>218</v>
       </c>
-      <c r="D14" s="307"/>
+      <c r="D14" s="308"/>
       <c r="E14" s="79" t="s">
         <v>217</v>
       </c>
@@ -14802,10 +14796,10 @@
       <c r="B15" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="C15" s="308" t="s">
+      <c r="C15" s="309" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="309"/>
+      <c r="D15" s="310"/>
       <c r="E15" s="66" t="s">
         <v>49</v>
       </c>
@@ -14845,10 +14839,10 @@
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="267" t="s">
+      <c r="B18" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="269"/>
+      <c r="C18" s="270"/>
       <c r="D18" s="158" t="s">
         <v>9</v>
       </c>
@@ -14865,15 +14859,15 @@
       <c r="A19" s="71">
         <v>1</v>
       </c>
-      <c r="B19" s="275" t="s">
+      <c r="B19" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="276"/>
-      <c r="D19" s="315" t="s">
+      <c r="C19" s="277"/>
+      <c r="D19" s="316" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="316"/>
-      <c r="F19" s="317"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="318"/>
       <c r="G19" s="72" t="s">
         <v>54</v>
       </c>
@@ -14910,15 +14904,15 @@
       <c r="B22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="267" t="s">
+      <c r="C22" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="268"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="267" t="s">
+      <c r="D22" s="269"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="305"/>
+      <c r="G22" s="306"/>
       <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
@@ -14930,15 +14924,15 @@
       <c r="B23" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="322" t="s">
+      <c r="C23" s="323" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="323"/>
-      <c r="E23" s="324"/>
-      <c r="F23" s="322" t="s">
+      <c r="D23" s="324"/>
+      <c r="E23" s="325"/>
+      <c r="F23" s="323" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="324"/>
+      <c r="G23" s="325"/>
       <c r="H23" s="165" t="s">
         <v>215</v>
       </c>
@@ -14972,15 +14966,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="268"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="270" t="s">
+      <c r="D26" s="269"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="271"/>
+      <c r="G26" s="272"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -14992,15 +14986,15 @@
       <c r="B27" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="315" t="s">
+      <c r="C27" s="316" t="s">
         <v>204</v>
       </c>
-      <c r="D27" s="316"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="315" t="s">
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
+      <c r="F27" s="316" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="317"/>
+      <c r="G27" s="318"/>
       <c r="H27" s="137" t="s">
         <v>214</v>
       </c>
@@ -15078,10 +15072,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="60"/>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="260" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="260"/>
+      <c r="D2" s="261"/>
       <c r="E2" s="24" t="s">
         <v>22</v>
       </c>
@@ -15100,10 +15094,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="60"/>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="260"/>
+      <c r="D3" s="261"/>
       <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
@@ -15120,12 +15114,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="60"/>
-      <c r="C4" s="259" t="s">
+      <c r="C4" s="260" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="298"/>
-      <c r="E4" s="298"/>
-      <c r="F4" s="260"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="261"/>
       <c r="G4" s="24" t="s">
         <v>24</v>
       </c>
@@ -15148,42 +15142,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="259" t="s">
+      <c r="C6" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="298"/>
-      <c r="E6" s="298"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="260"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="261"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="60" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="30"/>
-      <c r="C7" s="259" t="s">
+      <c r="C7" s="260" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="260"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="261"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="60" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="30"/>
-      <c r="C8" s="259" t="s">
+      <c r="C8" s="260" t="s">
         <v>170</v>
       </c>
-      <c r="D8" s="298"/>
-      <c r="E8" s="298"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="260"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="261"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
@@ -15204,10 +15198,10 @@
       <c r="B10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="270" t="s">
+      <c r="C10" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="310"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="37" t="s">
         <v>1</v>
       </c>
@@ -15228,10 +15222,10 @@
       <c r="B11" s="147" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="285" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="286"/>
       <c r="E11" s="111" t="s">
         <v>49</v>
       </c>
@@ -15252,10 +15246,10 @@
       <c r="B12" s="146" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="286" t="s">
+      <c r="C12" s="287" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="287"/>
+      <c r="D12" s="288"/>
       <c r="E12" s="111" t="s">
         <v>35</v>
       </c>
@@ -15276,10 +15270,10 @@
       <c r="B13" s="146" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="286" t="s">
+      <c r="C13" s="287" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="287"/>
+      <c r="D13" s="288"/>
       <c r="E13" s="111" t="s">
         <v>35</v>
       </c>
@@ -15300,10 +15294,10 @@
       <c r="B14" s="145" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="286" t="s">
+      <c r="C14" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="287"/>
+      <c r="D14" s="288"/>
       <c r="E14" s="111" t="s">
         <v>163</v>
       </c>
@@ -15324,10 +15318,10 @@
       <c r="B15" s="144" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="325" t="s">
+      <c r="C15" s="326" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="326"/>
+      <c r="D15" s="327"/>
       <c r="E15" s="143" t="s">
         <v>160</v>
       </c>
@@ -15367,10 +15361,10 @@
       <c r="A18" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="267" t="s">
+      <c r="B18" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="269"/>
+      <c r="C18" s="270"/>
       <c r="D18" s="134" t="s">
         <v>9</v>
       </c>
@@ -15387,11 +15381,11 @@
       <c r="A19" s="71">
         <v>1</v>
       </c>
-      <c r="B19" s="275"/>
-      <c r="C19" s="276"/>
-      <c r="D19" s="315"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="317"/>
+      <c r="B19" s="276"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="316"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="318"/>
       <c r="G19" s="72"/>
       <c r="H19" s="73"/>
     </row>
@@ -15424,15 +15418,15 @@
       <c r="B22" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="267" t="s">
+      <c r="C22" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="268"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="267" t="s">
+      <c r="D22" s="269"/>
+      <c r="E22" s="270"/>
+      <c r="F22" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="305"/>
+      <c r="G22" s="306"/>
       <c r="H22" s="47" t="s">
         <v>14</v>
       </c>
@@ -15444,15 +15438,15 @@
       <c r="B23" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="327" t="s">
+      <c r="C23" s="328" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="328"/>
-      <c r="E23" s="329"/>
-      <c r="F23" s="330" t="s">
+      <c r="D23" s="329"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="331" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="331"/>
+      <c r="G23" s="332"/>
       <c r="H23" s="140" t="s">
         <v>159</v>
       </c>
@@ -15486,15 +15480,15 @@
       <c r="B26" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="267" t="s">
+      <c r="C26" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="268"/>
-      <c r="E26" s="269"/>
-      <c r="F26" s="270" t="s">
+      <c r="D26" s="269"/>
+      <c r="E26" s="270"/>
+      <c r="F26" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="271"/>
+      <c r="G26" s="272"/>
       <c r="H26" s="38" t="s">
         <v>17</v>
       </c>
@@ -15506,15 +15500,15 @@
       <c r="B27" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="315" t="s">
+      <c r="C27" s="316" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="316"/>
-      <c r="E27" s="317"/>
-      <c r="F27" s="315" t="s">
+      <c r="D27" s="317"/>
+      <c r="E27" s="318"/>
+      <c r="F27" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="317"/>
+      <c r="G27" s="318"/>
       <c r="H27" s="137" t="s">
         <v>155</v>
       </c>

--- a/設計書/DB設計書.xlsx
+++ b/設計書/DB設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BEA51-D3D6-4351-B4F8-09F7D605B0EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE4DC79-DC28-4066-993A-FC93C16C8A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <sheet name="CRUD図 " sheetId="18" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'CRUD図 '!$A$1:$R$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'CRUD図 '!$A$1:$R$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'E-Rモデル　　エンティティ一覧'!$A$1:$F$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">カテゴリー!$A$1:$H$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">トーク!$A$1:$H$26</definedName>
@@ -47,7 +47,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="346">
   <si>
     <t>No</t>
   </si>
@@ -2204,6 +2204,10 @@
   </si>
   <si>
     <t>R,C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック機能</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4314,6 +4318,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4422,63 +4438,144 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4497,6 +4594,12 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4521,37 +4624,67 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4560,104 +4693,20 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4665,14 +4714,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4682,60 +4740,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -8227,7 +8231,7 @@
   </sheetPr>
   <dimension ref="A1:FT34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="58" zoomScaleNormal="58" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25:I25"/>
     </sheetView>
   </sheetViews>
@@ -8661,21 +8665,21 @@
       <c r="R3" s="196"/>
       <c r="S3" s="196"/>
       <c r="T3" s="196"/>
-      <c r="U3" s="241" t="s">
+      <c r="U3" s="245" t="s">
         <v>218</v>
       </c>
-      <c r="V3" s="243"/>
-      <c r="W3" s="266">
+      <c r="V3" s="247"/>
+      <c r="W3" s="270">
         <v>43714</v>
       </c>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="242"/>
-      <c r="AA3" s="242"/>
-      <c r="AB3" s="242"/>
-      <c r="AC3" s="242"/>
-      <c r="AD3" s="242"/>
-      <c r="AE3" s="243"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="246"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="247"/>
       <c r="AF3" s="196"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -8787,20 +8791,20 @@
       <c r="C7" s="202"/>
       <c r="D7" s="202"/>
       <c r="E7" s="201"/>
-      <c r="F7" s="251" t="s">
+      <c r="F7" s="255" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="252"/>
-      <c r="N7" s="252"/>
-      <c r="O7" s="252"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="253"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="256"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="256"/>
+      <c r="Q7" s="257"/>
       <c r="R7" s="196"/>
       <c r="S7" s="196"/>
       <c r="T7" s="196"/>
@@ -8818,86 +8822,86 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="196"/>
-      <c r="B8" s="254" t="s">
+      <c r="B8" s="258" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="260" t="s">
+      <c r="C8" s="259"/>
+      <c r="D8" s="259"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="264" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="261"/>
-      <c r="L8" s="261"/>
-      <c r="M8" s="261"/>
-      <c r="N8" s="261"/>
-      <c r="O8" s="261"/>
-      <c r="P8" s="261"/>
-      <c r="Q8" s="262"/>
+      <c r="G8" s="265"/>
+      <c r="H8" s="265"/>
+      <c r="I8" s="265"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="265"/>
+      <c r="L8" s="265"/>
+      <c r="M8" s="265"/>
+      <c r="N8" s="265"/>
+      <c r="O8" s="265"/>
+      <c r="P8" s="265"/>
+      <c r="Q8" s="266"/>
       <c r="R8" s="196"/>
       <c r="S8" s="196"/>
       <c r="T8" s="196"/>
       <c r="U8" s="196"/>
       <c r="V8" s="196"/>
-      <c r="W8" s="267" t="s">
+      <c r="W8" s="271" t="s">
         <v>212</v>
       </c>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="267"/>
-      <c r="Z8" s="267" t="s">
+      <c r="X8" s="271"/>
+      <c r="Y8" s="271"/>
+      <c r="Z8" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="AA8" s="267"/>
-      <c r="AB8" s="267"/>
-      <c r="AC8" s="267" t="s">
+      <c r="AA8" s="271"/>
+      <c r="AB8" s="271"/>
+      <c r="AC8" s="271" t="s">
         <v>205</v>
       </c>
-      <c r="AD8" s="267"/>
-      <c r="AE8" s="267"/>
+      <c r="AD8" s="271"/>
+      <c r="AE8" s="271"/>
       <c r="AF8" s="196"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="196"/>
-      <c r="B9" s="257"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="264"/>
-      <c r="M9" s="264"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="264"/>
-      <c r="P9" s="264"/>
-      <c r="Q9" s="265"/>
+      <c r="B9" s="261"/>
+      <c r="C9" s="262"/>
+      <c r="D9" s="262"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="268"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="268"/>
+      <c r="J9" s="268"/>
+      <c r="K9" s="268"/>
+      <c r="L9" s="268"/>
+      <c r="M9" s="268"/>
+      <c r="N9" s="268"/>
+      <c r="O9" s="268"/>
+      <c r="P9" s="268"/>
+      <c r="Q9" s="269"/>
       <c r="R9" s="196"/>
       <c r="S9" s="196"/>
       <c r="T9" s="196"/>
       <c r="U9" s="196"/>
       <c r="V9" s="196"/>
-      <c r="W9" s="268" t="s">
+      <c r="W9" s="272" t="s">
         <v>210</v>
       </c>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="270"/>
-      <c r="Z9" s="268" t="s">
+      <c r="X9" s="273"/>
+      <c r="Y9" s="274"/>
+      <c r="Z9" s="272" t="s">
         <v>142</v>
       </c>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="270"/>
-      <c r="AC9" s="268" t="s">
+      <c r="AA9" s="273"/>
+      <c r="AB9" s="274"/>
+      <c r="AC9" s="272" t="s">
         <v>142</v>
       </c>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="270"/>
+      <c r="AD9" s="273"/>
+      <c r="AE9" s="274"/>
       <c r="AF9" s="196"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -8923,15 +8927,15 @@
       <c r="T10" s="196"/>
       <c r="U10" s="196"/>
       <c r="V10" s="196"/>
-      <c r="W10" s="271"/>
-      <c r="X10" s="272"/>
-      <c r="Y10" s="273"/>
-      <c r="Z10" s="271"/>
-      <c r="AA10" s="272"/>
-      <c r="AB10" s="273"/>
-      <c r="AC10" s="271"/>
-      <c r="AD10" s="272"/>
-      <c r="AE10" s="273"/>
+      <c r="W10" s="275"/>
+      <c r="X10" s="276"/>
+      <c r="Y10" s="277"/>
+      <c r="Z10" s="275"/>
+      <c r="AA10" s="276"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="275"/>
+      <c r="AD10" s="276"/>
+      <c r="AE10" s="277"/>
       <c r="AF10" s="196"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -8957,15 +8961,15 @@
       <c r="T11" s="196"/>
       <c r="U11" s="196"/>
       <c r="V11" s="196"/>
-      <c r="W11" s="271"/>
-      <c r="X11" s="272"/>
-      <c r="Y11" s="273"/>
-      <c r="Z11" s="271"/>
-      <c r="AA11" s="272"/>
-      <c r="AB11" s="273"/>
-      <c r="AC11" s="271"/>
-      <c r="AD11" s="272"/>
-      <c r="AE11" s="273"/>
+      <c r="W11" s="275"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="277"/>
+      <c r="Z11" s="275"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="277"/>
+      <c r="AC11" s="275"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="277"/>
       <c r="AF11" s="196"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -8991,15 +8995,15 @@
       <c r="T12" s="200"/>
       <c r="U12" s="200"/>
       <c r="V12" s="200"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="276"/>
-      <c r="Z12" s="274"/>
-      <c r="AA12" s="275"/>
-      <c r="AB12" s="276"/>
-      <c r="AC12" s="274"/>
-      <c r="AD12" s="275"/>
-      <c r="AE12" s="276"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="279"/>
+      <c r="Y12" s="280"/>
+      <c r="Z12" s="278"/>
+      <c r="AA12" s="279"/>
+      <c r="AB12" s="280"/>
+      <c r="AC12" s="278"/>
+      <c r="AD12" s="279"/>
+      <c r="AE12" s="280"/>
       <c r="AF12" s="196"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -9094,106 +9098,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="196"/>
-      <c r="B16" s="250" t="s">
+      <c r="B16" s="254" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="250"/>
-      <c r="D16" s="250"/>
-      <c r="E16" s="250"/>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="250"/>
-      <c r="J16" s="250"/>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="250"/>
-      <c r="N16" s="250"/>
-      <c r="O16" s="250"/>
-      <c r="P16" s="250"/>
-      <c r="Q16" s="250"/>
-      <c r="R16" s="250"/>
-      <c r="S16" s="250"/>
-      <c r="T16" s="250"/>
-      <c r="U16" s="250"/>
-      <c r="V16" s="250"/>
-      <c r="W16" s="250"/>
-      <c r="X16" s="250"/>
-      <c r="Y16" s="250"/>
-      <c r="Z16" s="250"/>
-      <c r="AA16" s="250"/>
-      <c r="AB16" s="250"/>
-      <c r="AC16" s="250"/>
-      <c r="AD16" s="250"/>
-      <c r="AE16" s="250"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="254"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="254"/>
+      <c r="R16" s="254"/>
+      <c r="S16" s="254"/>
+      <c r="T16" s="254"/>
+      <c r="U16" s="254"/>
+      <c r="V16" s="254"/>
+      <c r="W16" s="254"/>
+      <c r="X16" s="254"/>
+      <c r="Y16" s="254"/>
+      <c r="Z16" s="254"/>
+      <c r="AA16" s="254"/>
+      <c r="AB16" s="254"/>
+      <c r="AC16" s="254"/>
+      <c r="AD16" s="254"/>
+      <c r="AE16" s="254"/>
       <c r="AF16" s="196"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="196"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="250"/>
-      <c r="D17" s="250"/>
-      <c r="E17" s="250"/>
-      <c r="F17" s="250"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="250"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="250"/>
-      <c r="N17" s="250"/>
-      <c r="O17" s="250"/>
-      <c r="P17" s="250"/>
-      <c r="Q17" s="250"/>
-      <c r="R17" s="250"/>
-      <c r="S17" s="250"/>
-      <c r="T17" s="250"/>
-      <c r="U17" s="250"/>
-      <c r="V17" s="250"/>
-      <c r="W17" s="250"/>
-      <c r="X17" s="250"/>
-      <c r="Y17" s="250"/>
-      <c r="Z17" s="250"/>
-      <c r="AA17" s="250"/>
-      <c r="AB17" s="250"/>
-      <c r="AC17" s="250"/>
-      <c r="AD17" s="250"/>
-      <c r="AE17" s="250"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="254"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
+      <c r="R17" s="254"/>
+      <c r="S17" s="254"/>
+      <c r="T17" s="254"/>
+      <c r="U17" s="254"/>
+      <c r="V17" s="254"/>
+      <c r="W17" s="254"/>
+      <c r="X17" s="254"/>
+      <c r="Y17" s="254"/>
+      <c r="Z17" s="254"/>
+      <c r="AA17" s="254"/>
+      <c r="AB17" s="254"/>
+      <c r="AC17" s="254"/>
+      <c r="AD17" s="254"/>
+      <c r="AE17" s="254"/>
       <c r="AF17" s="196"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="196"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="250"/>
-      <c r="D18" s="250"/>
-      <c r="E18" s="250"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="250"/>
-      <c r="K18" s="250"/>
-      <c r="L18" s="250"/>
-      <c r="M18" s="250"/>
-      <c r="N18" s="250"/>
-      <c r="O18" s="250"/>
-      <c r="P18" s="250"/>
-      <c r="Q18" s="250"/>
-      <c r="R18" s="250"/>
-      <c r="S18" s="250"/>
-      <c r="T18" s="250"/>
-      <c r="U18" s="250"/>
-      <c r="V18" s="250"/>
-      <c r="W18" s="250"/>
-      <c r="X18" s="250"/>
-      <c r="Y18" s="250"/>
-      <c r="Z18" s="250"/>
-      <c r="AA18" s="250"/>
-      <c r="AB18" s="250"/>
-      <c r="AC18" s="250"/>
-      <c r="AD18" s="250"/>
-      <c r="AE18" s="250"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="254"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="254"/>
+      <c r="N18" s="254"/>
+      <c r="O18" s="254"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="254"/>
+      <c r="R18" s="254"/>
+      <c r="S18" s="254"/>
+      <c r="T18" s="254"/>
+      <c r="U18" s="254"/>
+      <c r="V18" s="254"/>
+      <c r="W18" s="254"/>
+      <c r="X18" s="254"/>
+      <c r="Y18" s="254"/>
+      <c r="Z18" s="254"/>
+      <c r="AA18" s="254"/>
+      <c r="AB18" s="254"/>
+      <c r="AC18" s="254"/>
+      <c r="AD18" s="254"/>
+      <c r="AE18" s="254"/>
       <c r="AF18" s="196"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -9332,400 +9336,400 @@
     </row>
     <row r="23" spans="1:32" s="197" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="198"/>
-      <c r="B23" s="241" t="s">
+      <c r="B23" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="241" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="245" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="241" t="s">
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="247"/>
+      <c r="J23" s="245" t="s">
         <v>206</v>
       </c>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
-      <c r="N23" s="242"/>
-      <c r="O23" s="242"/>
-      <c r="P23" s="242"/>
-      <c r="Q23" s="242"/>
-      <c r="R23" s="242"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="242"/>
-      <c r="U23" s="242"/>
-      <c r="V23" s="242"/>
-      <c r="W23" s="242"/>
-      <c r="X23" s="242"/>
-      <c r="Y23" s="242"/>
-      <c r="Z23" s="242"/>
-      <c r="AA23" s="242"/>
-      <c r="AB23" s="243"/>
-      <c r="AC23" s="241" t="s">
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="246"/>
+      <c r="AA23" s="246"/>
+      <c r="AB23" s="247"/>
+      <c r="AC23" s="245" t="s">
         <v>205</v>
       </c>
-      <c r="AD23" s="242"/>
-      <c r="AE23" s="243"/>
+      <c r="AD23" s="246"/>
+      <c r="AE23" s="247"/>
       <c r="AF23" s="198"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="196"/>
-      <c r="B24" s="241" t="s">
+      <c r="B24" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="244">
+      <c r="C24" s="246"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="248">
         <v>43714</v>
       </c>
-      <c r="G24" s="245"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="241" t="s">
+      <c r="G24" s="249"/>
+      <c r="H24" s="249"/>
+      <c r="I24" s="250"/>
+      <c r="J24" s="245" t="s">
         <v>204</v>
       </c>
-      <c r="K24" s="242"/>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
-      <c r="N24" s="242"/>
-      <c r="O24" s="242"/>
-      <c r="P24" s="242"/>
-      <c r="Q24" s="242"/>
-      <c r="R24" s="242"/>
-      <c r="S24" s="242"/>
-      <c r="T24" s="242"/>
-      <c r="U24" s="242"/>
-      <c r="V24" s="242"/>
-      <c r="W24" s="242"/>
-      <c r="X24" s="242"/>
-      <c r="Y24" s="242"/>
-      <c r="Z24" s="242"/>
-      <c r="AA24" s="242"/>
-      <c r="AB24" s="243"/>
-      <c r="AC24" s="241" t="s">
+      <c r="K24" s="246"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="246"/>
+      <c r="N24" s="246"/>
+      <c r="O24" s="246"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="246"/>
+      <c r="U24" s="246"/>
+      <c r="V24" s="246"/>
+      <c r="W24" s="246"/>
+      <c r="X24" s="246"/>
+      <c r="Y24" s="246"/>
+      <c r="Z24" s="246"/>
+      <c r="AA24" s="246"/>
+      <c r="AB24" s="247"/>
+      <c r="AC24" s="245" t="s">
         <v>142</v>
       </c>
-      <c r="AD24" s="242"/>
-      <c r="AE24" s="243"/>
+      <c r="AD24" s="246"/>
+      <c r="AE24" s="247"/>
       <c r="AF24" s="196"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="196"/>
-      <c r="B25" s="241" t="s">
+      <c r="B25" s="245" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="242"/>
-      <c r="E25" s="243"/>
-      <c r="F25" s="244">
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="248">
         <v>43797</v>
       </c>
-      <c r="G25" s="245"/>
-      <c r="H25" s="245"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="241" t="s">
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="250"/>
+      <c r="J25" s="245" t="s">
         <v>237</v>
       </c>
-      <c r="K25" s="242"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="242"/>
-      <c r="N25" s="242"/>
-      <c r="O25" s="242"/>
-      <c r="P25" s="242"/>
-      <c r="Q25" s="242"/>
-      <c r="R25" s="242"/>
-      <c r="S25" s="242"/>
-      <c r="T25" s="242"/>
-      <c r="U25" s="242"/>
-      <c r="V25" s="242"/>
-      <c r="W25" s="242"/>
-      <c r="X25" s="242"/>
-      <c r="Y25" s="242"/>
-      <c r="Z25" s="242"/>
-      <c r="AA25" s="242"/>
-      <c r="AB25" s="243"/>
-      <c r="AC25" s="241" t="s">
+      <c r="K25" s="246"/>
+      <c r="L25" s="246"/>
+      <c r="M25" s="246"/>
+      <c r="N25" s="246"/>
+      <c r="O25" s="246"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="246"/>
+      <c r="U25" s="246"/>
+      <c r="V25" s="246"/>
+      <c r="W25" s="246"/>
+      <c r="X25" s="246"/>
+      <c r="Y25" s="246"/>
+      <c r="Z25" s="246"/>
+      <c r="AA25" s="246"/>
+      <c r="AB25" s="247"/>
+      <c r="AC25" s="245" t="s">
         <v>238</v>
       </c>
-      <c r="AD25" s="242"/>
-      <c r="AE25" s="243"/>
+      <c r="AD25" s="246"/>
+      <c r="AE25" s="247"/>
       <c r="AF25" s="196"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="196"/>
-      <c r="B26" s="241"/>
-      <c r="C26" s="242"/>
-      <c r="D26" s="242"/>
-      <c r="E26" s="243"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="246"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="242"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="242"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="242"/>
-      <c r="V26" s="242"/>
-      <c r="W26" s="242"/>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="242"/>
-      <c r="AB26" s="243"/>
-      <c r="AC26" s="241"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="243"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="245"/>
+      <c r="K26" s="246"/>
+      <c r="L26" s="246"/>
+      <c r="M26" s="246"/>
+      <c r="N26" s="246"/>
+      <c r="O26" s="246"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="246"/>
+      <c r="U26" s="246"/>
+      <c r="V26" s="246"/>
+      <c r="W26" s="246"/>
+      <c r="X26" s="246"/>
+      <c r="Y26" s="246"/>
+      <c r="Z26" s="246"/>
+      <c r="AA26" s="246"/>
+      <c r="AB26" s="247"/>
+      <c r="AC26" s="245"/>
+      <c r="AD26" s="246"/>
+      <c r="AE26" s="247"/>
       <c r="AF26" s="196"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="196"/>
-      <c r="B27" s="241"/>
-      <c r="C27" s="242"/>
-      <c r="D27" s="242"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="245"/>
-      <c r="H27" s="245"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="248"/>
-      <c r="L27" s="248"/>
-      <c r="M27" s="248"/>
-      <c r="N27" s="248"/>
-      <c r="O27" s="248"/>
-      <c r="P27" s="248"/>
-      <c r="Q27" s="248"/>
-      <c r="R27" s="248"/>
-      <c r="S27" s="248"/>
-      <c r="T27" s="248"/>
-      <c r="U27" s="248"/>
-      <c r="V27" s="248"/>
-      <c r="W27" s="248"/>
-      <c r="X27" s="248"/>
-      <c r="Y27" s="248"/>
-      <c r="Z27" s="248"/>
-      <c r="AA27" s="248"/>
-      <c r="AB27" s="249"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="242"/>
-      <c r="AE27" s="243"/>
+      <c r="B27" s="245"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="251"/>
+      <c r="K27" s="252"/>
+      <c r="L27" s="252"/>
+      <c r="M27" s="252"/>
+      <c r="N27" s="252"/>
+      <c r="O27" s="252"/>
+      <c r="P27" s="252"/>
+      <c r="Q27" s="252"/>
+      <c r="R27" s="252"/>
+      <c r="S27" s="252"/>
+      <c r="T27" s="252"/>
+      <c r="U27" s="252"/>
+      <c r="V27" s="252"/>
+      <c r="W27" s="252"/>
+      <c r="X27" s="252"/>
+      <c r="Y27" s="252"/>
+      <c r="Z27" s="252"/>
+      <c r="AA27" s="252"/>
+      <c r="AB27" s="253"/>
+      <c r="AC27" s="245"/>
+      <c r="AD27" s="246"/>
+      <c r="AE27" s="247"/>
       <c r="AF27" s="196"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="196"/>
-      <c r="B28" s="241"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="242"/>
-      <c r="E28" s="243"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="245"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="246"/>
-      <c r="J28" s="247"/>
-      <c r="K28" s="248"/>
-      <c r="L28" s="248"/>
-      <c r="M28" s="248"/>
-      <c r="N28" s="248"/>
-      <c r="O28" s="248"/>
-      <c r="P28" s="248"/>
-      <c r="Q28" s="248"/>
-      <c r="R28" s="248"/>
-      <c r="S28" s="248"/>
-      <c r="T28" s="248"/>
-      <c r="U28" s="248"/>
-      <c r="V28" s="248"/>
-      <c r="W28" s="248"/>
-      <c r="X28" s="248"/>
-      <c r="Y28" s="248"/>
-      <c r="Z28" s="248"/>
-      <c r="AA28" s="248"/>
-      <c r="AB28" s="249"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="242"/>
-      <c r="AE28" s="243"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="251"/>
+      <c r="K28" s="252"/>
+      <c r="L28" s="252"/>
+      <c r="M28" s="252"/>
+      <c r="N28" s="252"/>
+      <c r="O28" s="252"/>
+      <c r="P28" s="252"/>
+      <c r="Q28" s="252"/>
+      <c r="R28" s="252"/>
+      <c r="S28" s="252"/>
+      <c r="T28" s="252"/>
+      <c r="U28" s="252"/>
+      <c r="V28" s="252"/>
+      <c r="W28" s="252"/>
+      <c r="X28" s="252"/>
+      <c r="Y28" s="252"/>
+      <c r="Z28" s="252"/>
+      <c r="AA28" s="252"/>
+      <c r="AB28" s="253"/>
+      <c r="AC28" s="245"/>
+      <c r="AD28" s="246"/>
+      <c r="AE28" s="247"/>
       <c r="AF28" s="196"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="196"/>
-      <c r="B29" s="241"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="242"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="245"/>
-      <c r="I29" s="246"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="248"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="248"/>
-      <c r="N29" s="248"/>
-      <c r="O29" s="248"/>
-      <c r="P29" s="248"/>
-      <c r="Q29" s="248"/>
-      <c r="R29" s="248"/>
-      <c r="S29" s="248"/>
-      <c r="T29" s="248"/>
-      <c r="U29" s="248"/>
-      <c r="V29" s="248"/>
-      <c r="W29" s="248"/>
-      <c r="X29" s="248"/>
-      <c r="Y29" s="248"/>
-      <c r="Z29" s="248"/>
-      <c r="AA29" s="248"/>
-      <c r="AB29" s="249"/>
-      <c r="AC29" s="241"/>
-      <c r="AD29" s="242"/>
-      <c r="AE29" s="243"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="250"/>
+      <c r="J29" s="251"/>
+      <c r="K29" s="252"/>
+      <c r="L29" s="252"/>
+      <c r="M29" s="252"/>
+      <c r="N29" s="252"/>
+      <c r="O29" s="252"/>
+      <c r="P29" s="252"/>
+      <c r="Q29" s="252"/>
+      <c r="R29" s="252"/>
+      <c r="S29" s="252"/>
+      <c r="T29" s="252"/>
+      <c r="U29" s="252"/>
+      <c r="V29" s="252"/>
+      <c r="W29" s="252"/>
+      <c r="X29" s="252"/>
+      <c r="Y29" s="252"/>
+      <c r="Z29" s="252"/>
+      <c r="AA29" s="252"/>
+      <c r="AB29" s="253"/>
+      <c r="AC29" s="245"/>
+      <c r="AD29" s="246"/>
+      <c r="AE29" s="247"/>
       <c r="AF29" s="196"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="196"/>
-      <c r="B30" s="241"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="246"/>
-      <c r="J30" s="247"/>
-      <c r="K30" s="248"/>
-      <c r="L30" s="248"/>
-      <c r="M30" s="248"/>
-      <c r="N30" s="248"/>
-      <c r="O30" s="248"/>
-      <c r="P30" s="248"/>
-      <c r="Q30" s="248"/>
-      <c r="R30" s="248"/>
-      <c r="S30" s="248"/>
-      <c r="T30" s="248"/>
-      <c r="U30" s="248"/>
-      <c r="V30" s="248"/>
-      <c r="W30" s="248"/>
-      <c r="X30" s="248"/>
-      <c r="Y30" s="248"/>
-      <c r="Z30" s="248"/>
-      <c r="AA30" s="248"/>
-      <c r="AB30" s="249"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="242"/>
-      <c r="AE30" s="243"/>
+      <c r="B30" s="245"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="248"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="251"/>
+      <c r="K30" s="252"/>
+      <c r="L30" s="252"/>
+      <c r="M30" s="252"/>
+      <c r="N30" s="252"/>
+      <c r="O30" s="252"/>
+      <c r="P30" s="252"/>
+      <c r="Q30" s="252"/>
+      <c r="R30" s="252"/>
+      <c r="S30" s="252"/>
+      <c r="T30" s="252"/>
+      <c r="U30" s="252"/>
+      <c r="V30" s="252"/>
+      <c r="W30" s="252"/>
+      <c r="X30" s="252"/>
+      <c r="Y30" s="252"/>
+      <c r="Z30" s="252"/>
+      <c r="AA30" s="252"/>
+      <c r="AB30" s="253"/>
+      <c r="AC30" s="245"/>
+      <c r="AD30" s="246"/>
+      <c r="AE30" s="247"/>
       <c r="AF30" s="196"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="196"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="242"/>
-      <c r="D31" s="242"/>
-      <c r="E31" s="243"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="245"/>
-      <c r="H31" s="245"/>
-      <c r="I31" s="246"/>
-      <c r="J31" s="247"/>
-      <c r="K31" s="248"/>
-      <c r="L31" s="248"/>
-      <c r="M31" s="248"/>
-      <c r="N31" s="248"/>
-      <c r="O31" s="248"/>
-      <c r="P31" s="248"/>
-      <c r="Q31" s="248"/>
-      <c r="R31" s="248"/>
-      <c r="S31" s="248"/>
-      <c r="T31" s="248"/>
-      <c r="U31" s="248"/>
-      <c r="V31" s="248"/>
-      <c r="W31" s="248"/>
-      <c r="X31" s="248"/>
-      <c r="Y31" s="248"/>
-      <c r="Z31" s="248"/>
-      <c r="AA31" s="248"/>
-      <c r="AB31" s="249"/>
-      <c r="AC31" s="241"/>
-      <c r="AD31" s="242"/>
-      <c r="AE31" s="243"/>
+      <c r="B31" s="245"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="248"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="250"/>
+      <c r="J31" s="251"/>
+      <c r="K31" s="252"/>
+      <c r="L31" s="252"/>
+      <c r="M31" s="252"/>
+      <c r="N31" s="252"/>
+      <c r="O31" s="252"/>
+      <c r="P31" s="252"/>
+      <c r="Q31" s="252"/>
+      <c r="R31" s="252"/>
+      <c r="S31" s="252"/>
+      <c r="T31" s="252"/>
+      <c r="U31" s="252"/>
+      <c r="V31" s="252"/>
+      <c r="W31" s="252"/>
+      <c r="X31" s="252"/>
+      <c r="Y31" s="252"/>
+      <c r="Z31" s="252"/>
+      <c r="AA31" s="252"/>
+      <c r="AB31" s="253"/>
+      <c r="AC31" s="245"/>
+      <c r="AD31" s="246"/>
+      <c r="AE31" s="247"/>
       <c r="AF31" s="196"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="196"/>
-      <c r="B32" s="241"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="243"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="245"/>
-      <c r="H32" s="245"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="247"/>
-      <c r="K32" s="248"/>
-      <c r="L32" s="248"/>
-      <c r="M32" s="248"/>
-      <c r="N32" s="248"/>
-      <c r="O32" s="248"/>
-      <c r="P32" s="248"/>
-      <c r="Q32" s="248"/>
-      <c r="R32" s="248"/>
-      <c r="S32" s="248"/>
-      <c r="T32" s="248"/>
-      <c r="U32" s="248"/>
-      <c r="V32" s="248"/>
-      <c r="W32" s="248"/>
-      <c r="X32" s="248"/>
-      <c r="Y32" s="248"/>
-      <c r="Z32" s="248"/>
-      <c r="AA32" s="248"/>
-      <c r="AB32" s="249"/>
-      <c r="AC32" s="241"/>
-      <c r="AD32" s="242"/>
-      <c r="AE32" s="243"/>
+      <c r="B32" s="245"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="248"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="251"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="252"/>
+      <c r="M32" s="252"/>
+      <c r="N32" s="252"/>
+      <c r="O32" s="252"/>
+      <c r="P32" s="252"/>
+      <c r="Q32" s="252"/>
+      <c r="R32" s="252"/>
+      <c r="S32" s="252"/>
+      <c r="T32" s="252"/>
+      <c r="U32" s="252"/>
+      <c r="V32" s="252"/>
+      <c r="W32" s="252"/>
+      <c r="X32" s="252"/>
+      <c r="Y32" s="252"/>
+      <c r="Z32" s="252"/>
+      <c r="AA32" s="252"/>
+      <c r="AB32" s="253"/>
+      <c r="AC32" s="245"/>
+      <c r="AD32" s="246"/>
+      <c r="AE32" s="247"/>
       <c r="AF32" s="196"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="196"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="242"/>
-      <c r="D33" s="242"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="245"/>
-      <c r="H33" s="245"/>
-      <c r="I33" s="246"/>
-      <c r="J33" s="247"/>
-      <c r="K33" s="248"/>
-      <c r="L33" s="248"/>
-      <c r="M33" s="248"/>
-      <c r="N33" s="248"/>
-      <c r="O33" s="248"/>
-      <c r="P33" s="248"/>
-      <c r="Q33" s="248"/>
-      <c r="R33" s="248"/>
-      <c r="S33" s="248"/>
-      <c r="T33" s="248"/>
-      <c r="U33" s="248"/>
-      <c r="V33" s="248"/>
-      <c r="W33" s="248"/>
-      <c r="X33" s="248"/>
-      <c r="Y33" s="248"/>
-      <c r="Z33" s="248"/>
-      <c r="AA33" s="248"/>
-      <c r="AB33" s="249"/>
-      <c r="AC33" s="241"/>
-      <c r="AD33" s="242"/>
-      <c r="AE33" s="243"/>
+      <c r="B33" s="245"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="248"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="250"/>
+      <c r="J33" s="251"/>
+      <c r="K33" s="252"/>
+      <c r="L33" s="252"/>
+      <c r="M33" s="252"/>
+      <c r="N33" s="252"/>
+      <c r="O33" s="252"/>
+      <c r="P33" s="252"/>
+      <c r="Q33" s="252"/>
+      <c r="R33" s="252"/>
+      <c r="S33" s="252"/>
+      <c r="T33" s="252"/>
+      <c r="U33" s="252"/>
+      <c r="V33" s="252"/>
+      <c r="W33" s="252"/>
+      <c r="X33" s="252"/>
+      <c r="Y33" s="252"/>
+      <c r="Z33" s="252"/>
+      <c r="AA33" s="252"/>
+      <c r="AB33" s="253"/>
+      <c r="AC33" s="245"/>
+      <c r="AD33" s="246"/>
+      <c r="AE33" s="247"/>
       <c r="AF33" s="196"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -9871,10 +9875,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -9893,10 +9897,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -9915,12 +9919,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -9943,42 +9947,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -9999,10 +10003,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -10023,10 +10027,10 @@
       <c r="B11" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -10047,10 +10051,10 @@
       <c r="B12" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="321" t="s">
+      <c r="C12" s="364" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="322"/>
+      <c r="D12" s="365"/>
       <c r="E12" s="48" t="s">
         <v>49</v>
       </c>
@@ -10071,10 +10075,10 @@
       <c r="B13" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="339" t="s">
+      <c r="C13" s="360" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="339"/>
+      <c r="D13" s="360"/>
       <c r="E13" s="158" t="s">
         <v>49</v>
       </c>
@@ -10114,10 +10118,10 @@
       <c r="A16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="286" t="s">
+      <c r="B16" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="288"/>
+      <c r="C16" s="291"/>
       <c r="D16" s="151" t="s">
         <v>9</v>
       </c>
@@ -10134,15 +10138,15 @@
       <c r="A17" s="69">
         <v>1</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="314" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="291"/>
-      <c r="D17" s="302" t="s">
+      <c r="C17" s="315"/>
+      <c r="D17" s="335" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="303"/>
-      <c r="F17" s="304"/>
+      <c r="E17" s="336"/>
+      <c r="F17" s="337"/>
       <c r="G17" s="70" t="s">
         <v>53</v>
       </c>
@@ -10179,15 +10183,15 @@
       <c r="B20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="286" t="s">
+      <c r="C20" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="287"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="286" t="s">
+      <c r="D20" s="308"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="289"/>
+      <c r="G20" s="324"/>
       <c r="H20" s="45" t="s">
         <v>14</v>
       </c>
@@ -10199,15 +10203,15 @@
       <c r="B21" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="302" t="s">
+      <c r="C21" s="335" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="303"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="302" t="s">
+      <c r="D21" s="336"/>
+      <c r="E21" s="337"/>
+      <c r="F21" s="335" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="304"/>
+      <c r="G21" s="337"/>
       <c r="H21" s="133" t="s">
         <v>284</v>
       </c>
@@ -10219,15 +10223,15 @@
       <c r="B22" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="340" t="s">
+      <c r="C22" s="361" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="341"/>
-      <c r="E22" s="342"/>
-      <c r="F22" s="340" t="s">
+      <c r="D22" s="362"/>
+      <c r="E22" s="363"/>
+      <c r="F22" s="361" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="342"/>
+      <c r="G22" s="363"/>
       <c r="H22" s="237" t="s">
         <v>107</v>
       </c>
@@ -10261,15 +10265,15 @@
       <c r="B25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="286" t="s">
+      <c r="C25" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="282" t="s">
+      <c r="D25" s="308"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="295"/>
+      <c r="G25" s="310"/>
       <c r="H25" s="36" t="s">
         <v>17</v>
       </c>
@@ -10281,15 +10285,15 @@
       <c r="B26" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="302" t="s">
+      <c r="C26" s="335" t="s">
         <v>285</v>
       </c>
-      <c r="D26" s="303"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="302" t="s">
+      <c r="D26" s="336"/>
+      <c r="E26" s="337"/>
+      <c r="F26" s="335" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="304"/>
+      <c r="G26" s="337"/>
       <c r="H26" s="133" t="s">
         <v>165</v>
       </c>
@@ -10367,10 +10371,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -10389,10 +10393,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -10411,12 +10415,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -10439,42 +10443,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -10495,10 +10499,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -10519,10 +10523,10 @@
       <c r="B11" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -10543,10 +10547,10 @@
       <c r="B12" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="325" t="s">
         <v>177</v>
       </c>
-      <c r="D12" s="281"/>
+      <c r="D12" s="326"/>
       <c r="E12" s="53" t="s">
         <v>49</v>
       </c>
@@ -10567,10 +10571,10 @@
       <c r="B13" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="280" t="s">
+      <c r="C13" s="325" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="281"/>
+      <c r="D13" s="326"/>
       <c r="E13" s="53" t="s">
         <v>175</v>
       </c>
@@ -10591,10 +10595,10 @@
       <c r="B14" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="280" t="s">
+      <c r="C14" s="325" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="281"/>
+      <c r="D14" s="326"/>
       <c r="E14" s="76" t="s">
         <v>172</v>
       </c>
@@ -10615,10 +10619,10 @@
       <c r="B15" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="319" t="s">
+      <c r="C15" s="333" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="320"/>
+      <c r="D15" s="334"/>
       <c r="E15" s="64" t="s">
         <v>49</v>
       </c>
@@ -10658,10 +10662,10 @@
       <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="286" t="s">
+      <c r="B18" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="288"/>
+      <c r="C18" s="291"/>
       <c r="D18" s="151" t="s">
         <v>9</v>
       </c>
@@ -10678,15 +10682,15 @@
       <c r="A19" s="69">
         <v>1</v>
       </c>
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="314" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="291"/>
-      <c r="D19" s="302" t="s">
+      <c r="C19" s="315"/>
+      <c r="D19" s="335" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="304"/>
+      <c r="E19" s="336"/>
+      <c r="F19" s="337"/>
       <c r="G19" s="70" t="s">
         <v>53</v>
       </c>
@@ -10723,15 +10727,15 @@
       <c r="B22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="286" t="s">
+      <c r="C22" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="287"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="286" t="s">
+      <c r="D22" s="308"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="289"/>
+      <c r="G22" s="324"/>
       <c r="H22" s="45" t="s">
         <v>14</v>
       </c>
@@ -10743,15 +10747,15 @@
       <c r="B23" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="302" t="s">
+      <c r="C23" s="335" t="s">
         <v>290</v>
       </c>
-      <c r="D23" s="303"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="302" t="s">
+      <c r="D23" s="336"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="335" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="304"/>
+      <c r="G23" s="337"/>
       <c r="H23" s="133" t="s">
         <v>165</v>
       </c>
@@ -10785,15 +10789,15 @@
       <c r="B26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="286" t="s">
+      <c r="C26" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="282" t="s">
+      <c r="D26" s="308"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="295"/>
+      <c r="G26" s="310"/>
       <c r="H26" s="36" t="s">
         <v>17</v>
       </c>
@@ -10805,15 +10809,15 @@
       <c r="B27" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="302" t="s">
+      <c r="C27" s="335" t="s">
         <v>292</v>
       </c>
-      <c r="D27" s="303"/>
-      <c r="E27" s="304"/>
-      <c r="F27" s="302" t="s">
+      <c r="D27" s="336"/>
+      <c r="E27" s="337"/>
+      <c r="F27" s="335" t="s">
         <v>254</v>
       </c>
-      <c r="G27" s="304"/>
+      <c r="G27" s="337"/>
       <c r="H27" s="133" t="s">
         <v>291</v>
       </c>
@@ -10891,10 +10895,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="214"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -10913,10 +10917,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="214"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -10935,12 +10939,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="214"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -10953,42 +10957,42 @@
         <v>28</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="277" t="s">
+      <c r="C5" s="285" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="278"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="286"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="214" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="214" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="s">
@@ -11009,10 +11013,10 @@
       <c r="B9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="283"/>
+      <c r="D9" s="321"/>
       <c r="E9" s="35" t="s">
         <v>1</v>
       </c>
@@ -11033,10 +11037,10 @@
       <c r="B10" s="143" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="310" t="s">
+      <c r="C10" s="302" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="311"/>
+      <c r="D10" s="303"/>
       <c r="E10" s="108" t="s">
         <v>49</v>
       </c>
@@ -11057,10 +11061,10 @@
       <c r="B11" s="142" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="312" t="s">
+      <c r="C11" s="304" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="313"/>
+      <c r="D11" s="305"/>
       <c r="E11" s="108" t="s">
         <v>35</v>
       </c>
@@ -11100,10 +11104,10 @@
       <c r="A14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="286" t="s">
+      <c r="B14" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="288"/>
+      <c r="C14" s="291"/>
       <c r="D14" s="217" t="s">
         <v>9</v>
       </c>
@@ -11120,15 +11124,15 @@
       <c r="A15" s="69">
         <v>1</v>
       </c>
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="314" t="s">
         <v>309</v>
       </c>
-      <c r="C15" s="291"/>
-      <c r="D15" s="302" t="s">
+      <c r="C15" s="315"/>
+      <c r="D15" s="335" t="s">
         <v>309</v>
       </c>
-      <c r="E15" s="303"/>
-      <c r="F15" s="304"/>
+      <c r="E15" s="336"/>
+      <c r="F15" s="337"/>
       <c r="G15" s="70"/>
       <c r="H15" s="71" t="s">
         <v>262</v>
@@ -11163,15 +11167,15 @@
       <c r="B18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="286" t="s">
+      <c r="C18" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="287"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="286" t="s">
+      <c r="D18" s="308"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="289"/>
+      <c r="G18" s="324"/>
       <c r="H18" s="45" t="s">
         <v>14</v>
       </c>
@@ -11181,11 +11185,11 @@
         <v>1</v>
       </c>
       <c r="B19" s="221"/>
-      <c r="C19" s="305"/>
-      <c r="D19" s="306"/>
-      <c r="E19" s="307"/>
-      <c r="F19" s="308"/>
-      <c r="G19" s="309"/>
+      <c r="C19" s="338"/>
+      <c r="D19" s="339"/>
+      <c r="E19" s="340"/>
+      <c r="F19" s="341"/>
+      <c r="G19" s="342"/>
       <c r="H19" s="136"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
@@ -11217,15 +11221,15 @@
       <c r="B22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="286" t="s">
+      <c r="C22" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="287"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="282" t="s">
+      <c r="D22" s="308"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="295"/>
+      <c r="G22" s="310"/>
       <c r="H22" s="36" t="s">
         <v>17</v>
       </c>
@@ -11237,15 +11241,15 @@
       <c r="B23" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="302" t="s">
+      <c r="C23" s="335" t="s">
         <v>236</v>
       </c>
-      <c r="D23" s="303"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="302" t="s">
+      <c r="D23" s="336"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="335" t="s">
         <v>230</v>
       </c>
-      <c r="G23" s="304"/>
+      <c r="G23" s="337"/>
       <c r="H23" s="133" t="s">
         <v>275</v>
       </c>
@@ -11320,10 +11324,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="214"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -11342,10 +11346,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="214"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -11364,12 +11368,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="214"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -11392,42 +11396,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="214" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="214" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -11448,10 +11452,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -11472,10 +11476,10 @@
       <c r="B11" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -11496,10 +11500,10 @@
       <c r="B12" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="325" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="281"/>
+      <c r="D12" s="326"/>
       <c r="E12" s="53" t="s">
         <v>241</v>
       </c>
@@ -11520,10 +11524,10 @@
       <c r="B13" s="213" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="319" t="s">
+      <c r="C13" s="333" t="s">
         <v>246</v>
       </c>
-      <c r="D13" s="320"/>
+      <c r="D13" s="334"/>
       <c r="E13" s="64" t="s">
         <v>35</v>
       </c>
@@ -11563,10 +11567,10 @@
       <c r="A16" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="286" t="s">
+      <c r="B16" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="288"/>
+      <c r="C16" s="291"/>
       <c r="D16" s="217" t="s">
         <v>9</v>
       </c>
@@ -11583,15 +11587,15 @@
       <c r="A17" s="69">
         <v>1</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="314" t="s">
         <v>227</v>
       </c>
-      <c r="C17" s="291"/>
-      <c r="D17" s="292" t="s">
+      <c r="C17" s="315"/>
+      <c r="D17" s="311" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="293"/>
-      <c r="F17" s="294"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="313"/>
       <c r="G17" s="70" t="s">
         <v>53</v>
       </c>
@@ -11628,15 +11632,15 @@
       <c r="B20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="314" t="s">
+      <c r="C20" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="315"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="314" t="s">
+      <c r="D20" s="317"/>
+      <c r="E20" s="318"/>
+      <c r="F20" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="317"/>
+      <c r="G20" s="319"/>
       <c r="H20" s="85" t="s">
         <v>14</v>
       </c>
@@ -11648,15 +11652,15 @@
       <c r="B21" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="292" t="s">
+      <c r="C21" s="311" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="293"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="318" t="s">
+      <c r="D21" s="312"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="320" t="s">
         <v>247</v>
       </c>
-      <c r="G21" s="318"/>
+      <c r="G21" s="320"/>
       <c r="H21" s="220" t="s">
         <v>271</v>
       </c>
@@ -11690,15 +11694,15 @@
       <c r="B24" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="286" t="s">
+      <c r="C24" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="287"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="282" t="s">
+      <c r="D24" s="308"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="295"/>
+      <c r="G24" s="310"/>
       <c r="H24" s="36" t="s">
         <v>17</v>
       </c>
@@ -11710,15 +11714,15 @@
       <c r="B25" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="292" t="s">
+      <c r="C25" s="311" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="293"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="292" t="s">
+      <c r="D25" s="312"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="311" t="s">
         <v>249</v>
       </c>
-      <c r="G25" s="294"/>
+      <c r="G25" s="313"/>
       <c r="H25" s="73" t="s">
         <v>272</v>
       </c>
@@ -11794,10 +11798,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="189"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -11816,10 +11820,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="189"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -11838,12 +11842,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="189"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -11866,42 +11870,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="189" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="189" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -11922,10 +11926,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -11946,10 +11950,10 @@
       <c r="B11" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -11968,10 +11972,10 @@
       <c r="B12" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="321" t="s">
+      <c r="C12" s="364" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="322"/>
+      <c r="D12" s="365"/>
       <c r="E12" s="108" t="s">
         <v>35</v>
       </c>
@@ -11988,10 +11992,10 @@
       <c r="B13" s="213" t="s">
         <v>221</v>
       </c>
-      <c r="C13" s="319" t="s">
+      <c r="C13" s="333" t="s">
         <v>158</v>
       </c>
-      <c r="D13" s="320"/>
+      <c r="D13" s="334"/>
       <c r="E13" s="64" t="s">
         <v>172</v>
       </c>
@@ -12034,10 +12038,10 @@
       <c r="A17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="288"/>
+      <c r="C17" s="291"/>
       <c r="D17" s="167" t="s">
         <v>9</v>
       </c>
@@ -12054,15 +12058,15 @@
       <c r="A18" s="69">
         <v>1</v>
       </c>
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="314" t="s">
         <v>263</v>
       </c>
-      <c r="C18" s="291"/>
-      <c r="D18" s="302" t="s">
+      <c r="C18" s="315"/>
+      <c r="D18" s="335" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="303"/>
-      <c r="F18" s="304"/>
+      <c r="E18" s="336"/>
+      <c r="F18" s="337"/>
       <c r="G18" s="70" t="s">
         <v>265</v>
       </c>
@@ -12099,15 +12103,15 @@
       <c r="B21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="286" t="s">
+      <c r="C21" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="287"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="286" t="s">
+      <c r="D21" s="308"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="289"/>
+      <c r="G21" s="324"/>
       <c r="H21" s="45" t="s">
         <v>14</v>
       </c>
@@ -12117,11 +12121,11 @@
         <v>1</v>
       </c>
       <c r="B22" s="223"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="304"/>
-      <c r="F22" s="302"/>
-      <c r="G22" s="304"/>
+      <c r="C22" s="335"/>
+      <c r="D22" s="336"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="335"/>
+      <c r="G22" s="337"/>
       <c r="H22" s="133"/>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
@@ -12153,15 +12157,15 @@
       <c r="B25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="286" t="s">
+      <c r="C25" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="282" t="s">
+      <c r="D25" s="308"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="295"/>
+      <c r="G25" s="310"/>
       <c r="H25" s="36" t="s">
         <v>17</v>
       </c>
@@ -12171,15 +12175,15 @@
         <v>1</v>
       </c>
       <c r="B26" s="134"/>
-      <c r="C26" s="302" t="s">
+      <c r="C26" s="335" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="303"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="302" t="s">
+      <c r="D26" s="336"/>
+      <c r="E26" s="337"/>
+      <c r="F26" s="335" t="s">
         <v>274</v>
       </c>
-      <c r="G26" s="304"/>
+      <c r="G26" s="337"/>
       <c r="H26" s="133" t="s">
         <v>273</v>
       </c>
@@ -12219,10 +12223,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="45" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -12262,117 +12266,117 @@
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="358" t="s">
+      <c r="B2" s="366" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="360"/>
+      <c r="C2" s="367"/>
+      <c r="D2" s="367"/>
+      <c r="E2" s="367"/>
+      <c r="F2" s="368"/>
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="358" t="s">
+      <c r="H2" s="366" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="359"/>
-      <c r="J2" s="360"/>
+      <c r="I2" s="367"/>
+      <c r="J2" s="368"/>
       <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="364">
+      <c r="L2" s="373">
         <v>43725</v>
       </c>
-      <c r="M2" s="364"/>
-      <c r="N2" s="364"/>
-      <c r="O2" s="364"/>
-      <c r="P2" s="364"/>
-      <c r="Q2" s="364"/>
-      <c r="R2" s="364"/>
+      <c r="M2" s="373"/>
+      <c r="N2" s="373"/>
+      <c r="O2" s="373"/>
+      <c r="P2" s="373"/>
+      <c r="Q2" s="373"/>
+      <c r="R2" s="373"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="358" t="s">
+      <c r="B3" s="366" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="360"/>
+      <c r="C3" s="367"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="367"/>
+      <c r="F3" s="368"/>
       <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="358" t="s">
+      <c r="H3" s="366" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="359"/>
-      <c r="J3" s="360"/>
+      <c r="I3" s="367"/>
+      <c r="J3" s="368"/>
       <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="365">
+      <c r="L3" s="374">
         <v>43798</v>
       </c>
-      <c r="M3" s="366"/>
-      <c r="N3" s="366"/>
-      <c r="O3" s="366"/>
-      <c r="P3" s="366"/>
-      <c r="Q3" s="366"/>
-      <c r="R3" s="366"/>
+      <c r="M3" s="375"/>
+      <c r="N3" s="375"/>
+      <c r="O3" s="375"/>
+      <c r="P3" s="375"/>
+      <c r="Q3" s="375"/>
+      <c r="R3" s="375"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="358" t="s">
+      <c r="B4" s="366" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="359"/>
-      <c r="D4" s="359"/>
-      <c r="E4" s="359"/>
-      <c r="F4" s="359"/>
-      <c r="G4" s="359"/>
-      <c r="H4" s="359"/>
-      <c r="I4" s="359"/>
-      <c r="J4" s="360"/>
+      <c r="C4" s="367"/>
+      <c r="D4" s="367"/>
+      <c r="E4" s="367"/>
+      <c r="F4" s="367"/>
+      <c r="G4" s="367"/>
+      <c r="H4" s="367"/>
+      <c r="I4" s="367"/>
+      <c r="J4" s="368"/>
       <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="366" t="s">
+      <c r="L4" s="375" t="s">
         <v>261</v>
       </c>
-      <c r="M4" s="366"/>
-      <c r="N4" s="366"/>
-      <c r="O4" s="366"/>
-      <c r="P4" s="366"/>
-      <c r="Q4" s="366"/>
-      <c r="R4" s="366"/>
+      <c r="M4" s="375"/>
+      <c r="N4" s="375"/>
+      <c r="O4" s="375"/>
+      <c r="P4" s="375"/>
+      <c r="Q4" s="375"/>
+      <c r="R4" s="375"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="361" t="s">
+      <c r="B5" s="379" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="362"/>
-      <c r="H5" s="362"/>
-      <c r="I5" s="362"/>
-      <c r="J5" s="362"/>
-      <c r="K5" s="362"/>
-      <c r="L5" s="362"/>
-      <c r="M5" s="362"/>
-      <c r="N5" s="362"/>
-      <c r="O5" s="362"/>
-      <c r="P5" s="362"/>
-      <c r="Q5" s="362"/>
-      <c r="R5" s="363"/>
+      <c r="C5" s="380"/>
+      <c r="D5" s="380"/>
+      <c r="E5" s="380"/>
+      <c r="F5" s="380"/>
+      <c r="G5" s="380"/>
+      <c r="H5" s="380"/>
+      <c r="I5" s="380"/>
+      <c r="J5" s="380"/>
+      <c r="K5" s="380"/>
+      <c r="L5" s="380"/>
+      <c r="M5" s="380"/>
+      <c r="N5" s="380"/>
+      <c r="O5" s="380"/>
+      <c r="P5" s="380"/>
+      <c r="Q5" s="380"/>
+      <c r="R5" s="381"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="6" t="s">
@@ -12424,19 +12428,19 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="367" t="s">
+      <c r="F8" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="367"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="367"/>
-      <c r="J8" s="367"/>
-      <c r="K8" s="367"/>
-      <c r="L8" s="367"/>
-      <c r="M8" s="367"/>
-      <c r="N8" s="367"/>
-      <c r="O8" s="367"/>
-      <c r="P8" s="367"/>
+      <c r="G8" s="378"/>
+      <c r="H8" s="378"/>
+      <c r="I8" s="378"/>
+      <c r="J8" s="378"/>
+      <c r="K8" s="378"/>
+      <c r="L8" s="378"/>
+      <c r="M8" s="378"/>
+      <c r="N8" s="378"/>
+      <c r="O8" s="378"/>
+      <c r="P8" s="378"/>
       <c r="Q8" s="127"/>
       <c r="R8" s="9"/>
     </row>
@@ -12446,31 +12450,31 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="380" t="s">
+      <c r="F9" s="243" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="380" t="s">
+      <c r="G9" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="380" t="s">
+      <c r="H9" s="243" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="380" t="s">
+      <c r="I9" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="380" t="s">
+      <c r="J9" s="243" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="380" t="s">
+      <c r="K9" s="243" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="380" t="s">
+      <c r="L9" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="380" t="s">
+      <c r="M9" s="243" t="s">
         <v>118</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="243" t="s">
         <v>230</v>
       </c>
       <c r="O9" s="12" t="s">
@@ -12484,14 +12488,14 @@
     </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="356" t="s">
+      <c r="B10" s="371" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="374" t="s">
+      <c r="C10" s="369" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="375"/>
-      <c r="E10" s="375"/>
+      <c r="D10" s="370"/>
+      <c r="E10" s="370"/>
       <c r="F10" s="12" t="s">
         <v>343</v>
       </c>
@@ -12530,12 +12534,12 @@
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1">
       <c r="A11" s="7"/>
-      <c r="B11" s="357"/>
-      <c r="C11" s="374" t="s">
+      <c r="B11" s="372"/>
+      <c r="C11" s="369" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="375"/>
-      <c r="E11" s="376"/>
+      <c r="D11" s="370"/>
+      <c r="E11" s="241"/>
       <c r="F11" s="12" t="s">
         <v>343</v>
       </c>
@@ -12574,12 +12578,12 @@
     </row>
     <row r="12" spans="1:18" ht="22.5" customHeight="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="357"/>
-      <c r="C12" s="374" t="s">
+      <c r="B12" s="372"/>
+      <c r="C12" s="369" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="375"/>
-      <c r="E12" s="375"/>
+      <c r="D12" s="370"/>
+      <c r="E12" s="370"/>
       <c r="F12" s="12" t="s">
         <v>41</v>
       </c>
@@ -12618,12 +12622,12 @@
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="357"/>
-      <c r="C13" s="377" t="s">
+      <c r="B13" s="372"/>
+      <c r="C13" s="376" t="s">
         <v>328</v>
       </c>
-      <c r="D13" s="378"/>
-      <c r="E13" s="376"/>
+      <c r="D13" s="377"/>
+      <c r="E13" s="241"/>
       <c r="F13" s="12" t="s">
         <v>332</v>
       </c>
@@ -12662,12 +12666,12 @@
     </row>
     <row r="14" spans="1:18" ht="22.5" customHeight="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="357"/>
-      <c r="C14" s="374" t="s">
+      <c r="B14" s="372"/>
+      <c r="C14" s="369" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="375"/>
-      <c r="E14" s="375"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="370"/>
       <c r="F14" s="12" t="s">
         <v>334</v>
       </c>
@@ -12706,12 +12710,12 @@
     </row>
     <row r="15" spans="1:18" ht="22.5" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="357"/>
-      <c r="C15" s="374" t="s">
+      <c r="B15" s="372"/>
+      <c r="C15" s="369" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="375"/>
-      <c r="E15" s="375"/>
+      <c r="D15" s="370"/>
+      <c r="E15" s="370"/>
       <c r="F15" s="12" t="s">
         <v>44</v>
       </c>
@@ -12750,12 +12754,12 @@
     </row>
     <row r="16" spans="1:18" ht="22.5" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" s="357"/>
-      <c r="C16" s="374" t="s">
+      <c r="B16" s="372"/>
+      <c r="C16" s="369" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="375"/>
-      <c r="E16" s="375"/>
+      <c r="D16" s="370"/>
+      <c r="E16" s="370"/>
       <c r="F16" s="12" t="s">
         <v>126</v>
       </c>
@@ -12794,12 +12798,12 @@
     </row>
     <row r="17" spans="1:18" ht="22.5" customHeight="1">
       <c r="A17" s="7"/>
-      <c r="B17" s="357"/>
-      <c r="C17" s="374" t="s">
+      <c r="B17" s="372"/>
+      <c r="C17" s="369" t="s">
         <v>320</v>
       </c>
-      <c r="D17" s="375"/>
-      <c r="E17" s="376"/>
+      <c r="D17" s="370"/>
+      <c r="E17" s="241"/>
       <c r="F17" s="12" t="s">
         <v>332</v>
       </c>
@@ -12838,12 +12842,12 @@
     </row>
     <row r="18" spans="1:18" ht="22.5" customHeight="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="357"/>
-      <c r="C18" s="374" t="s">
+      <c r="B18" s="372"/>
+      <c r="C18" s="369" t="s">
         <v>336</v>
       </c>
-      <c r="D18" s="375"/>
-      <c r="E18" s="375"/>
+      <c r="D18" s="370"/>
+      <c r="E18" s="370"/>
       <c r="F18" s="12" t="s">
         <v>41</v>
       </c>
@@ -12882,12 +12886,12 @@
     </row>
     <row r="19" spans="1:18" ht="22.5" customHeight="1">
       <c r="A19" s="7"/>
-      <c r="B19" s="357"/>
-      <c r="C19" s="374" t="s">
+      <c r="B19" s="372"/>
+      <c r="C19" s="369" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="375"/>
-      <c r="E19" s="375"/>
+      <c r="D19" s="370"/>
+      <c r="E19" s="370"/>
       <c r="F19" s="12" t="s">
         <v>41</v>
       </c>
@@ -12926,12 +12930,12 @@
     </row>
     <row r="20" spans="1:18" ht="22.5" customHeight="1">
       <c r="A20" s="7"/>
-      <c r="B20" s="357"/>
-      <c r="C20" s="374" t="s">
+      <c r="B20" s="372"/>
+      <c r="C20" s="369" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="375"/>
-      <c r="E20" s="375"/>
+      <c r="D20" s="370"/>
+      <c r="E20" s="370"/>
       <c r="F20" s="12" t="s">
         <v>41</v>
       </c>
@@ -12970,12 +12974,12 @@
     </row>
     <row r="21" spans="1:18" ht="22.5" customHeight="1">
       <c r="A21" s="7"/>
-      <c r="B21" s="357"/>
-      <c r="C21" s="374" t="s">
+      <c r="B21" s="372"/>
+      <c r="C21" s="369" t="s">
         <v>339</v>
       </c>
-      <c r="D21" s="375"/>
-      <c r="E21" s="375"/>
+      <c r="D21" s="370"/>
+      <c r="E21" s="370"/>
       <c r="F21" s="12" t="s">
         <v>41</v>
       </c>
@@ -13014,12 +13018,12 @@
     </row>
     <row r="22" spans="1:18" ht="22.5" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="357"/>
-      <c r="C22" s="374" t="s">
+      <c r="B22" s="372"/>
+      <c r="C22" s="369" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="375"/>
-      <c r="E22" s="375"/>
+      <c r="D22" s="370"/>
+      <c r="E22" s="370"/>
       <c r="F22" s="12" t="s">
         <v>44</v>
       </c>
@@ -13058,12 +13062,12 @@
     </row>
     <row r="23" spans="1:18" ht="22.5" customHeight="1">
       <c r="A23" s="7"/>
-      <c r="B23" s="357"/>
-      <c r="C23" s="374" t="s">
+      <c r="B23" s="372"/>
+      <c r="C23" s="369" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="375"/>
-      <c r="E23" s="375"/>
+      <c r="D23" s="370"/>
+      <c r="E23" s="370"/>
       <c r="F23" s="12" t="s">
         <v>44</v>
       </c>
@@ -13102,12 +13106,12 @@
     </row>
     <row r="24" spans="1:18" ht="22.5" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="357"/>
-      <c r="C24" s="374" t="s">
+      <c r="B24" s="372"/>
+      <c r="C24" s="369" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="375"/>
-      <c r="E24" s="376"/>
+      <c r="D24" s="370"/>
+      <c r="E24" s="241"/>
       <c r="F24" s="12" t="s">
         <v>44</v>
       </c>
@@ -13146,12 +13150,12 @@
     </row>
     <row r="25" spans="1:18" ht="22.5" customHeight="1">
       <c r="A25" s="7"/>
-      <c r="B25" s="357"/>
-      <c r="C25" s="374" t="s">
+      <c r="B25" s="372"/>
+      <c r="C25" s="369" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="375"/>
-      <c r="E25" s="376"/>
+      <c r="D25" s="370"/>
+      <c r="E25" s="241"/>
       <c r="F25" s="12" t="s">
         <v>41</v>
       </c>
@@ -13190,12 +13194,12 @@
     </row>
     <row r="26" spans="1:18" ht="22.5" customHeight="1">
       <c r="A26" s="7"/>
-      <c r="B26" s="357"/>
-      <c r="C26" s="374" t="s">
+      <c r="B26" s="372"/>
+      <c r="C26" s="369" t="s">
         <v>341</v>
       </c>
-      <c r="D26" s="375"/>
-      <c r="E26" s="376"/>
+      <c r="D26" s="370"/>
+      <c r="E26" s="241"/>
       <c r="F26" s="12" t="s">
         <v>41</v>
       </c>
@@ -13234,12 +13238,12 @@
     </row>
     <row r="27" spans="1:18" ht="22.5" customHeight="1">
       <c r="A27" s="7"/>
-      <c r="B27" s="357"/>
-      <c r="C27" s="374" t="s">
+      <c r="B27" s="372"/>
+      <c r="C27" s="369" t="s">
         <v>323</v>
       </c>
-      <c r="D27" s="375"/>
-      <c r="E27" s="376"/>
+      <c r="D27" s="370"/>
+      <c r="E27" s="241"/>
       <c r="F27" s="12" t="s">
         <v>41</v>
       </c>
@@ -13278,12 +13282,12 @@
     </row>
     <row r="28" spans="1:18" ht="22.5" customHeight="1">
       <c r="A28" s="7"/>
-      <c r="B28" s="357"/>
-      <c r="C28" s="374" t="s">
+      <c r="B28" s="372"/>
+      <c r="C28" s="369" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="375"/>
-      <c r="E28" s="375"/>
+      <c r="D28" s="370"/>
+      <c r="E28" s="370"/>
       <c r="F28" s="12" t="s">
         <v>41</v>
       </c>
@@ -13303,7 +13307,7 @@
         <v>41</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="M28" s="12" t="s">
         <v>45</v>
@@ -13322,14 +13326,14 @@
     </row>
     <row r="29" spans="1:18" ht="22.5" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="357"/>
-      <c r="C29" s="379" t="s">
-        <v>324</v>
-      </c>
-      <c r="D29" s="376"/>
-      <c r="E29" s="376"/>
+      <c r="B29" s="372"/>
+      <c r="C29" s="369" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" s="370"/>
+      <c r="E29" s="370"/>
       <c r="F29" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>41</v>
@@ -13347,10 +13351,10 @@
         <v>41</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>41</v>
@@ -13359,21 +13363,21 @@
         <v>41</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="126"/>
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="22.5" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="357"/>
-      <c r="C30" s="374" t="s">
-        <v>327</v>
-      </c>
-      <c r="D30" s="375"/>
-      <c r="E30" s="376"/>
+      <c r="B30" s="372"/>
+      <c r="C30" s="242" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
       <c r="F30" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>41</v>
@@ -13403,22 +13407,58 @@
         <v>41</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="126"/>
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="22.5" customHeight="1">
       <c r="A31" s="7"/>
-      <c r="B31" s="381"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
+      <c r="B31" s="372"/>
+      <c r="C31" s="369" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="370"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="Q31" s="126"/>
       <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:18" ht="22.5" customHeight="1">
       <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
+      <c r="B32" s="244"/>
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
       <c r="Q32" s="126"/>
@@ -13488,7 +13528,7 @@
       <c r="Q40" s="126"/>
       <c r="R40" s="9"/>
     </row>
-    <row r="41" spans="1:18" ht="23.25" customHeight="1">
+    <row r="41" spans="1:18" ht="22.5" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="O41" s="126"/>
@@ -13512,36 +13552,44 @@
       <c r="Q43" s="126"/>
       <c r="R43" s="9"/>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" ht="23.25" customHeight="1">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="O44" s="126"/>
+      <c r="P44" s="126"/>
+      <c r="Q44" s="126"/>
       <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="15"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="9"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="L3:R3"/>
     <mergeCell ref="L4:R4"/>
@@ -13559,22 +13607,23 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B10:B30"/>
+    <mergeCell ref="B10:B31"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13615,14 +13664,14 @@
       <c r="F1" s="191"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="371"/>
-      <c r="C2" s="277" t="s">
+      <c r="B2" s="284"/>
+      <c r="C2" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="188" t="s">
         <v>22</v>
       </c>
@@ -13631,14 +13680,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="283" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="277" t="s">
+      <c r="B3" s="284"/>
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="188" t="s">
         <v>23</v>
       </c>
@@ -13647,14 +13696,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="370" t="s">
+      <c r="A4" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="371"/>
-      <c r="C4" s="277" t="s">
+      <c r="B4" s="284"/>
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="286"/>
       <c r="E4" s="188" t="s">
         <v>24</v>
       </c>
@@ -13663,14 +13712,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="370" t="s">
+      <c r="A5" s="283" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="371"/>
-      <c r="C5" s="277" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="285" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="278"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="188" t="s">
         <v>25</v>
       </c>
@@ -13679,14 +13728,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="370" t="s">
+      <c r="A6" s="283" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="277" t="s">
+      <c r="B6" s="284"/>
+      <c r="C6" s="285" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="278"/>
+      <c r="D6" s="286"/>
       <c r="E6" s="188" t="s">
         <v>26</v>
       </c>
@@ -13725,10 +13774,10 @@
       <c r="D9" s="180" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="372" t="s">
+      <c r="E9" s="287" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="373"/>
+      <c r="F9" s="288"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="156">
@@ -13743,10 +13792,10 @@
       <c r="D10" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="368" t="s">
+      <c r="E10" s="281" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="369"/>
+      <c r="F10" s="282"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="156">
@@ -13761,10 +13810,10 @@
       <c r="D11" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E11" s="368" t="s">
+      <c r="E11" s="281" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="369"/>
+      <c r="F11" s="282"/>
     </row>
     <row r="12" spans="1:6" ht="33.5" customHeight="1">
       <c r="A12" s="156">
@@ -13779,10 +13828,10 @@
       <c r="D12" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="368" t="s">
+      <c r="E12" s="281" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="369"/>
+      <c r="F12" s="282"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="156">
@@ -13797,10 +13846,10 @@
       <c r="D13" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="368" t="s">
+      <c r="E13" s="281" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="369"/>
+      <c r="F13" s="282"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="156">
@@ -13815,10 +13864,10 @@
       <c r="D14" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="368" t="s">
+      <c r="E14" s="281" t="s">
         <v>187</v>
       </c>
-      <c r="F14" s="369"/>
+      <c r="F14" s="282"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="156">
@@ -13833,10 +13882,10 @@
       <c r="D15" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E15" s="368" t="s">
+      <c r="E15" s="281" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="369"/>
+      <c r="F15" s="282"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="156">
@@ -13851,10 +13900,10 @@
       <c r="D16" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="368" t="s">
+      <c r="E16" s="281" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="369"/>
+      <c r="F16" s="282"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="156">
@@ -13869,10 +13918,10 @@
       <c r="D17" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="368" t="s">
+      <c r="E17" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="F17" s="369"/>
+      <c r="F17" s="282"/>
     </row>
     <row r="18" spans="1:6" ht="33.75" customHeight="1">
       <c r="A18" s="156">
@@ -13887,10 +13936,10 @@
       <c r="D18" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="368" t="s">
+      <c r="E18" s="281" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="369"/>
+      <c r="F18" s="282"/>
     </row>
     <row r="19" spans="1:6" ht="33.75" customHeight="1">
       <c r="A19" s="156">
@@ -13905,10 +13954,10 @@
       <c r="D19" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="368" t="s">
+      <c r="E19" s="281" t="s">
         <v>317</v>
       </c>
-      <c r="F19" s="369"/>
+      <c r="F19" s="282"/>
     </row>
     <row r="20" spans="1:6" ht="33.75" customHeight="1">
       <c r="A20" s="156">
@@ -13923,10 +13972,10 @@
       <c r="D20" s="156" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="368" t="s">
+      <c r="E20" s="281" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="369"/>
+      <c r="F20" s="282"/>
     </row>
     <row r="21" spans="1:6" ht="33.75" customHeight="1">
       <c r="A21" s="156">
@@ -13941,10 +13990,10 @@
       <c r="D21" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="368" t="s">
+      <c r="E21" s="281" t="s">
         <v>319</v>
       </c>
-      <c r="F21" s="369"/>
+      <c r="F21" s="282"/>
     </row>
     <row r="22" spans="1:6" ht="33.75" customHeight="1">
       <c r="A22" s="238"/>
@@ -14234,10 +14283,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -14256,10 +14305,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -14278,12 +14327,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -14306,42 +14355,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -14362,10 +14411,10 @@
       <c r="B10" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="335" t="s">
+      <c r="C10" s="300" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="336"/>
+      <c r="D10" s="301"/>
       <c r="E10" s="96" t="s">
         <v>1</v>
       </c>
@@ -14386,10 +14435,10 @@
       <c r="B11" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="302" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="311"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="108" t="s">
         <v>49</v>
       </c>
@@ -14410,10 +14459,10 @@
       <c r="B12" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="312" t="s">
+      <c r="C12" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="313"/>
+      <c r="D12" s="305"/>
       <c r="E12" s="109" t="s">
         <v>35</v>
       </c>
@@ -14434,10 +14483,10 @@
       <c r="B13" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="312" t="s">
+      <c r="C13" s="304" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="313"/>
+      <c r="D13" s="305"/>
       <c r="E13" s="109" t="s">
         <v>35</v>
       </c>
@@ -14458,10 +14507,10 @@
       <c r="B14" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="337" t="s">
+      <c r="C14" s="306" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="338"/>
+      <c r="D14" s="307"/>
       <c r="E14" s="110" t="s">
         <v>49</v>
       </c>
@@ -14482,10 +14531,10 @@
       <c r="B15" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="327" t="s">
+      <c r="C15" s="292" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="328"/>
+      <c r="D15" s="293"/>
       <c r="E15" s="109" t="s">
         <v>49</v>
       </c>
@@ -14506,10 +14555,10 @@
       <c r="B16" s="117" t="s">
         <v>226</v>
       </c>
-      <c r="C16" s="327" t="s">
+      <c r="C16" s="292" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="328"/>
+      <c r="D16" s="293"/>
       <c r="E16" s="109" t="s">
         <v>49</v>
       </c>
@@ -14530,10 +14579,10 @@
       <c r="B17" s="117" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="327" t="s">
+      <c r="C17" s="292" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="328"/>
+      <c r="D17" s="293"/>
       <c r="E17" s="112" t="s">
         <v>49</v>
       </c>
@@ -14554,10 +14603,10 @@
       <c r="B18" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="327" t="s">
+      <c r="C18" s="292" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="328"/>
+      <c r="D18" s="293"/>
       <c r="E18" s="111" t="s">
         <v>49</v>
       </c>
@@ -14578,10 +14627,10 @@
       <c r="B19" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="327" t="s">
+      <c r="C19" s="292" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="328"/>
+      <c r="D19" s="293"/>
       <c r="E19" s="109" t="s">
         <v>35</v>
       </c>
@@ -14602,10 +14651,10 @@
       <c r="B20" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="327" t="s">
+      <c r="C20" s="292" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="328"/>
+      <c r="D20" s="293"/>
       <c r="E20" s="109" t="s">
         <v>35</v>
       </c>
@@ -14626,10 +14675,10 @@
       <c r="B21" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="327" t="s">
+      <c r="C21" s="292" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="328"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="109" t="s">
         <v>35</v>
       </c>
@@ -14650,10 +14699,10 @@
       <c r="B22" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="327" t="s">
+      <c r="C22" s="292" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="328"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="109" t="s">
         <v>35</v>
       </c>
@@ -14674,10 +14723,10 @@
       <c r="B23" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="333" t="s">
+      <c r="C23" s="298" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="334"/>
+      <c r="D23" s="299"/>
       <c r="E23" s="113" t="s">
         <v>49</v>
       </c>
@@ -14699,10 +14748,10 @@
       <c r="B24" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="329" t="s">
+      <c r="C24" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="330"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="114" t="s">
         <v>131</v>
       </c>
@@ -14723,10 +14772,10 @@
       <c r="B25" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="331" t="s">
+      <c r="C25" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="332"/>
+      <c r="D25" s="297"/>
       <c r="E25" s="115" t="s">
         <v>49</v>
       </c>
@@ -14767,10 +14816,10 @@
       <c r="A28" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="286" t="s">
+      <c r="B28" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="288"/>
+      <c r="C28" s="291"/>
       <c r="D28" s="78" t="s">
         <v>9</v>
       </c>
@@ -14787,15 +14836,15 @@
       <c r="A29" s="69">
         <v>1</v>
       </c>
-      <c r="B29" s="290" t="s">
+      <c r="B29" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="291"/>
-      <c r="D29" s="292" t="s">
+      <c r="C29" s="315"/>
+      <c r="D29" s="311" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="293"/>
-      <c r="F29" s="294"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="313"/>
       <c r="G29" s="70" t="s">
         <v>53</v>
       </c>
@@ -14831,15 +14880,15 @@
       <c r="B32" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="314" t="s">
+      <c r="C32" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="315"/>
-      <c r="E32" s="316"/>
-      <c r="F32" s="314" t="s">
+      <c r="D32" s="317"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="317"/>
+      <c r="G32" s="319"/>
       <c r="H32" s="85" t="s">
         <v>14</v>
       </c>
@@ -14849,11 +14898,11 @@
         <v>1</v>
       </c>
       <c r="B33" s="19"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="318"/>
-      <c r="G33" s="318"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="312"/>
+      <c r="E33" s="313"/>
+      <c r="F33" s="320"/>
+      <c r="G33" s="320"/>
       <c r="H33" s="86"/>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
@@ -14884,15 +14933,15 @@
       <c r="B36" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="286" t="s">
+      <c r="C36" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="287"/>
-      <c r="E36" s="288"/>
-      <c r="F36" s="282" t="s">
+      <c r="D36" s="308"/>
+      <c r="E36" s="291"/>
+      <c r="F36" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="295"/>
+      <c r="G36" s="310"/>
       <c r="H36" s="36" t="s">
         <v>17</v>
       </c>
@@ -14904,15 +14953,15 @@
       <c r="B37" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="292" t="s">
+      <c r="C37" s="311" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="293"/>
-      <c r="E37" s="294"/>
-      <c r="F37" s="292" t="s">
+      <c r="D37" s="312"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="311" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="294"/>
+      <c r="G37" s="313"/>
       <c r="H37" s="73" t="s">
         <v>107</v>
       </c>
@@ -15000,10 +15049,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -15022,10 +15071,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -15044,12 +15093,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -15072,42 +15121,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -15128,10 +15177,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -15152,10 +15201,10 @@
       <c r="B11" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -15176,10 +15225,10 @@
       <c r="B12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="322" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="285"/>
+      <c r="D12" s="323"/>
       <c r="E12" s="53" t="s">
         <v>49</v>
       </c>
@@ -15219,10 +15268,10 @@
       <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="286" t="s">
+      <c r="B15" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="288"/>
+      <c r="C15" s="291"/>
       <c r="D15" s="78" t="s">
         <v>9</v>
       </c>
@@ -15239,15 +15288,15 @@
       <c r="A16" s="69">
         <v>1</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="314" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="291"/>
-      <c r="D16" s="292" t="s">
+      <c r="C16" s="315"/>
+      <c r="D16" s="311" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="293"/>
-      <c r="F16" s="294"/>
+      <c r="E16" s="312"/>
+      <c r="F16" s="313"/>
       <c r="G16" s="70" t="s">
         <v>53</v>
       </c>
@@ -15259,15 +15308,15 @@
       <c r="A17" s="69">
         <v>2</v>
       </c>
-      <c r="B17" s="290" t="s">
+      <c r="B17" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="291"/>
-      <c r="D17" s="292" t="s">
+      <c r="C17" s="315"/>
+      <c r="D17" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="293"/>
-      <c r="F17" s="294"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="313"/>
       <c r="G17" s="70" t="s">
         <v>53</v>
       </c>
@@ -15304,15 +15353,15 @@
       <c r="B20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="286" t="s">
+      <c r="C20" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="287"/>
-      <c r="E20" s="288"/>
-      <c r="F20" s="286" t="s">
+      <c r="D20" s="308"/>
+      <c r="E20" s="291"/>
+      <c r="F20" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="289"/>
+      <c r="G20" s="324"/>
       <c r="H20" s="45" t="s">
         <v>14</v>
       </c>
@@ -15324,15 +15373,15 @@
       <c r="B21" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="292" t="s">
+      <c r="C21" s="311" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="293"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="292" t="s">
+      <c r="D21" s="312"/>
+      <c r="E21" s="313"/>
+      <c r="F21" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="294"/>
+      <c r="G21" s="313"/>
       <c r="H21" s="73" t="s">
         <v>268</v>
       </c>
@@ -15344,15 +15393,15 @@
       <c r="B22" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="292" t="s">
+      <c r="C22" s="311" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="293"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="292" t="s">
+      <c r="D22" s="312"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="311" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="294"/>
+      <c r="G22" s="313"/>
       <c r="H22" s="73" t="s">
         <v>107</v>
       </c>
@@ -15386,15 +15435,15 @@
       <c r="B25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="286" t="s">
+      <c r="C25" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="282" t="s">
+      <c r="D25" s="308"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="295"/>
+      <c r="G25" s="310"/>
       <c r="H25" s="36" t="s">
         <v>17</v>
       </c>
@@ -15406,15 +15455,15 @@
       <c r="B26" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="292" t="s">
+      <c r="C26" s="311" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="293"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="292" t="s">
+      <c r="D26" s="312"/>
+      <c r="E26" s="313"/>
+      <c r="F26" s="311" t="s">
         <v>279</v>
       </c>
-      <c r="G26" s="294"/>
+      <c r="G26" s="313"/>
       <c r="H26" s="73" t="s">
         <v>281</v>
       </c>
@@ -15426,15 +15475,15 @@
       <c r="B27" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="292" t="s">
+      <c r="C27" s="311" t="s">
         <v>278</v>
       </c>
-      <c r="D27" s="293"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="292" t="s">
+      <c r="D27" s="312"/>
+      <c r="E27" s="313"/>
+      <c r="F27" s="311" t="s">
         <v>279</v>
       </c>
-      <c r="G27" s="294"/>
+      <c r="G27" s="313"/>
       <c r="H27" s="73" t="s">
         <v>280</v>
       </c>
@@ -15515,10 +15564,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="21"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -15537,10 +15586,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -15559,12 +15608,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -15587,42 +15636,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -15643,10 +15692,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -15667,10 +15716,10 @@
       <c r="B11" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -15691,10 +15740,10 @@
       <c r="B12" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="325" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="281"/>
+      <c r="D12" s="326"/>
       <c r="E12" s="56" t="s">
         <v>65</v>
       </c>
@@ -15734,10 +15783,10 @@
       <c r="A15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="286" t="s">
+      <c r="B15" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="288"/>
+      <c r="C15" s="291"/>
       <c r="D15" s="41" t="s">
         <v>9</v>
       </c>
@@ -15754,15 +15803,15 @@
       <c r="A16" s="69">
         <v>1</v>
       </c>
-      <c r="B16" s="290" t="s">
+      <c r="B16" s="314" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="291"/>
-      <c r="D16" s="292" t="s">
+      <c r="C16" s="315"/>
+      <c r="D16" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="293"/>
-      <c r="F16" s="294"/>
+      <c r="E16" s="312"/>
+      <c r="F16" s="313"/>
       <c r="G16" s="70" t="s">
         <v>53</v>
       </c>
@@ -15799,15 +15848,15 @@
       <c r="B19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="286" t="s">
+      <c r="C19" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="287"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="286" t="s">
+      <c r="D19" s="308"/>
+      <c r="E19" s="291"/>
+      <c r="F19" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="289"/>
+      <c r="G19" s="324"/>
       <c r="H19" s="45" t="s">
         <v>14</v>
       </c>
@@ -15817,11 +15866,11 @@
         <v>1</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="296"/>
-      <c r="D20" s="297"/>
-      <c r="E20" s="298"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="298"/>
+      <c r="C20" s="327"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="329"/>
+      <c r="F20" s="327"/>
+      <c r="G20" s="329"/>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
@@ -15829,11 +15878,11 @@
         <v>2</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="301"/>
+      <c r="C21" s="330"/>
+      <c r="D21" s="331"/>
+      <c r="E21" s="332"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="332"/>
       <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
@@ -15865,15 +15914,15 @@
       <c r="B24" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="286" t="s">
+      <c r="C24" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="287"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="282" t="s">
+      <c r="D24" s="308"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="295"/>
+      <c r="G24" s="310"/>
       <c r="H24" s="36" t="s">
         <v>17</v>
       </c>
@@ -15885,15 +15934,15 @@
       <c r="B25" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="292" t="s">
+      <c r="C25" s="311" t="s">
         <v>269</v>
       </c>
-      <c r="D25" s="293"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="292" t="s">
+      <c r="D25" s="312"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="311" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="294"/>
+      <c r="G25" s="313"/>
       <c r="H25" s="73" t="s">
         <v>270</v>
       </c>
@@ -15970,10 +16019,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -15992,10 +16041,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -16014,12 +16063,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -16042,42 +16091,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -16098,10 +16147,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -16122,10 +16171,10 @@
       <c r="B11" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="322" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="285"/>
+      <c r="D11" s="323"/>
       <c r="E11" s="53" t="s">
         <v>49</v>
       </c>
@@ -16146,10 +16195,10 @@
       <c r="B12" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="280" t="s">
+      <c r="C12" s="325" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="281"/>
+      <c r="D12" s="326"/>
       <c r="E12" s="56" t="s">
         <v>49</v>
       </c>
@@ -16170,10 +16219,10 @@
       <c r="B13" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="280" t="s">
+      <c r="C13" s="325" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="281"/>
+      <c r="D13" s="326"/>
       <c r="E13" s="48" t="s">
         <v>49</v>
       </c>
@@ -16194,10 +16243,10 @@
       <c r="B14" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="319" t="s">
+      <c r="C14" s="333" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="320"/>
+      <c r="D14" s="334"/>
       <c r="E14" s="64" t="s">
         <v>49</v>
       </c>
@@ -16237,10 +16286,10 @@
       <c r="A17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="288"/>
+      <c r="C17" s="291"/>
       <c r="D17" s="78" t="s">
         <v>9</v>
       </c>
@@ -16257,15 +16306,15 @@
       <c r="A18" s="69">
         <v>1</v>
       </c>
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="314" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="291"/>
-      <c r="D18" s="292" t="s">
+      <c r="C18" s="315"/>
+      <c r="D18" s="311" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="293"/>
-      <c r="F18" s="294"/>
+      <c r="E18" s="312"/>
+      <c r="F18" s="313"/>
       <c r="G18" s="70" t="s">
         <v>53</v>
       </c>
@@ -16302,15 +16351,15 @@
       <c r="B21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="314" t="s">
+      <c r="C21" s="316" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="315"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="314" t="s">
+      <c r="D21" s="317"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="317"/>
+      <c r="G21" s="319"/>
       <c r="H21" s="85" t="s">
         <v>14</v>
       </c>
@@ -16322,15 +16371,15 @@
       <c r="B22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="292" t="s">
+      <c r="C22" s="311" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="293"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="318" t="s">
+      <c r="D22" s="312"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="320" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="318"/>
+      <c r="G22" s="320"/>
       <c r="H22" s="86" t="s">
         <v>288</v>
       </c>
@@ -16342,15 +16391,15 @@
       <c r="B23" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="292" t="s">
+      <c r="C23" s="311" t="s">
         <v>287</v>
       </c>
-      <c r="D23" s="293"/>
-      <c r="E23" s="294"/>
-      <c r="F23" s="318" t="s">
+      <c r="D23" s="312"/>
+      <c r="E23" s="313"/>
+      <c r="F23" s="320" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="318"/>
+      <c r="G23" s="320"/>
       <c r="H23" s="86" t="s">
         <v>289</v>
       </c>
@@ -16384,15 +16433,15 @@
       <c r="B26" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="286" t="s">
+      <c r="C26" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="287"/>
-      <c r="E26" s="288"/>
-      <c r="F26" s="282" t="s">
+      <c r="D26" s="308"/>
+      <c r="E26" s="291"/>
+      <c r="F26" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="295"/>
+      <c r="G26" s="310"/>
       <c r="H26" s="36" t="s">
         <v>17</v>
       </c>
@@ -16404,15 +16453,15 @@
       <c r="B27" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="292" t="s">
+      <c r="C27" s="311" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="293"/>
-      <c r="E27" s="294"/>
-      <c r="F27" s="292" t="s">
+      <c r="D27" s="312"/>
+      <c r="E27" s="313"/>
+      <c r="F27" s="311" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="294"/>
+      <c r="G27" s="313"/>
       <c r="H27" s="73" t="s">
         <v>117</v>
       </c>
@@ -16491,10 +16540,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -16513,10 +16562,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -16535,12 +16584,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -16563,42 +16612,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -16619,10 +16668,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -16643,10 +16692,10 @@
       <c r="B11" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="311"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="108" t="s">
         <v>49</v>
       </c>
@@ -16667,10 +16716,10 @@
       <c r="B12" s="142" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="312" t="s">
+      <c r="C12" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="313"/>
+      <c r="D12" s="305"/>
       <c r="E12" s="108" t="s">
         <v>241</v>
       </c>
@@ -16691,10 +16740,10 @@
       <c r="B13" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="312" t="s">
+      <c r="C13" s="304" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="313"/>
+      <c r="D13" s="305"/>
       <c r="E13" s="108" t="s">
         <v>35</v>
       </c>
@@ -16715,10 +16764,10 @@
       <c r="B14" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="312" t="s">
+      <c r="C14" s="304" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="313"/>
+      <c r="D14" s="305"/>
       <c r="E14" s="108" t="s">
         <v>241</v>
       </c>
@@ -16782,10 +16831,10 @@
       <c r="A18" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="286" t="s">
+      <c r="B18" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="288"/>
+      <c r="C18" s="291"/>
       <c r="D18" s="130" t="s">
         <v>9</v>
       </c>
@@ -16802,15 +16851,15 @@
       <c r="A19" s="69">
         <v>1</v>
       </c>
-      <c r="B19" s="290" t="s">
+      <c r="B19" s="314" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="291"/>
-      <c r="D19" s="302" t="s">
+      <c r="C19" s="315"/>
+      <c r="D19" s="335" t="s">
         <v>256</v>
       </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="304"/>
+      <c r="E19" s="336"/>
+      <c r="F19" s="337"/>
       <c r="G19" s="70" t="s">
         <v>243</v>
       </c>
@@ -16845,15 +16894,15 @@
       <c r="B22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="286" t="s">
+      <c r="C22" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="287"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="286" t="s">
+      <c r="D22" s="308"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="289"/>
+      <c r="G22" s="324"/>
       <c r="H22" s="45" t="s">
         <v>14</v>
       </c>
@@ -16885,15 +16934,15 @@
       <c r="B24" s="137" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="305" t="s">
+      <c r="C24" s="338" t="s">
         <v>294</v>
       </c>
-      <c r="D24" s="306"/>
-      <c r="E24" s="307"/>
-      <c r="F24" s="308" t="s">
+      <c r="D24" s="339"/>
+      <c r="E24" s="340"/>
+      <c r="F24" s="341" t="s">
         <v>258</v>
       </c>
-      <c r="G24" s="309"/>
+      <c r="G24" s="342"/>
       <c r="H24" s="136" t="s">
         <v>297</v>
       </c>
@@ -16927,15 +16976,15 @@
       <c r="B27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="286" t="s">
+      <c r="C27" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="287"/>
-      <c r="E27" s="288"/>
-      <c r="F27" s="282" t="s">
+      <c r="D27" s="308"/>
+      <c r="E27" s="291"/>
+      <c r="F27" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="295"/>
+      <c r="G27" s="310"/>
       <c r="H27" s="36" t="s">
         <v>17</v>
       </c>
@@ -16947,15 +16996,15 @@
       <c r="B28" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="302" t="s">
+      <c r="C28" s="335" t="s">
         <v>259</v>
       </c>
-      <c r="D28" s="303"/>
-      <c r="E28" s="304"/>
-      <c r="F28" s="302" t="s">
+      <c r="D28" s="336"/>
+      <c r="E28" s="337"/>
+      <c r="F28" s="335" t="s">
         <v>295</v>
       </c>
-      <c r="G28" s="304"/>
+      <c r="G28" s="337"/>
       <c r="H28" s="133" t="s">
         <v>298</v>
       </c>
@@ -17035,10 +17084,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -17057,10 +17106,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -17079,12 +17128,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -17107,42 +17156,42 @@
         <v>28</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="C8" s="277" t="s">
+      <c r="C8" s="285" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
-      <c r="H8" s="278"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="289"/>
+      <c r="G8" s="289"/>
+      <c r="H8" s="286"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="29" t="s">
@@ -17163,10 +17212,10 @@
       <c r="B10" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="283"/>
+      <c r="D10" s="321"/>
       <c r="E10" s="35" t="s">
         <v>1</v>
       </c>
@@ -17187,10 +17236,10 @@
       <c r="B11" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="310" t="s">
+      <c r="C11" s="302" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="311"/>
+      <c r="D11" s="303"/>
       <c r="E11" s="108" t="s">
         <v>49</v>
       </c>
@@ -17211,10 +17260,10 @@
       <c r="B12" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="310" t="s">
+      <c r="C12" s="302" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="311"/>
+      <c r="D12" s="303"/>
       <c r="E12" s="108" t="s">
         <v>49</v>
       </c>
@@ -17235,10 +17284,10 @@
       <c r="B13" s="142" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="310" t="s">
+      <c r="C13" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="311"/>
+      <c r="D13" s="303"/>
       <c r="E13" s="108" t="s">
         <v>35</v>
       </c>
@@ -17302,10 +17351,10 @@
       <c r="A17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="286" t="s">
+      <c r="B17" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="288"/>
+      <c r="C17" s="291"/>
       <c r="D17" s="130" t="s">
         <v>9</v>
       </c>
@@ -17322,15 +17371,15 @@
       <c r="A18" s="69">
         <v>1</v>
       </c>
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="314" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="291"/>
-      <c r="D18" s="302" t="s">
+      <c r="C18" s="315"/>
+      <c r="D18" s="335" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="303"/>
-      <c r="F18" s="304"/>
+      <c r="E18" s="336"/>
+      <c r="F18" s="337"/>
       <c r="G18" s="70" t="s">
         <v>242</v>
       </c>
@@ -17367,15 +17416,15 @@
       <c r="B21" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="286" t="s">
+      <c r="C21" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="287"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="286" t="s">
+      <c r="D21" s="308"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="289"/>
+      <c r="G21" s="324"/>
       <c r="H21" s="45" t="s">
         <v>14</v>
       </c>
@@ -17387,15 +17436,15 @@
       <c r="B22" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="305" t="s">
+      <c r="C22" s="338" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="306"/>
-      <c r="E22" s="307"/>
-      <c r="F22" s="308" t="s">
+      <c r="D22" s="339"/>
+      <c r="E22" s="340"/>
+      <c r="F22" s="341" t="s">
         <v>295</v>
       </c>
-      <c r="G22" s="309"/>
+      <c r="G22" s="342"/>
       <c r="H22" s="136" t="s">
         <v>303</v>
       </c>
@@ -17429,12 +17478,12 @@
       <c r="B25" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="286" t="s">
+      <c r="C25" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="287"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="282" t="s">
+      <c r="D25" s="308"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="309" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="355"/>
@@ -17450,19 +17499,19 @@
       <c r="B26" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="302" t="s">
+      <c r="C26" s="335" t="s">
         <v>304</v>
       </c>
-      <c r="D26" s="303"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="302" t="s">
+      <c r="D26" s="336"/>
+      <c r="E26" s="337"/>
+      <c r="F26" s="335" t="s">
         <v>301</v>
       </c>
-      <c r="G26" s="304"/>
-      <c r="H26" s="302" t="s">
+      <c r="G26" s="337"/>
+      <c r="H26" s="335" t="s">
         <v>306</v>
       </c>
-      <c r="I26" s="304"/>
+      <c r="I26" s="337"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="236">
@@ -17562,10 +17611,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="58"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="285" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="286"/>
       <c r="E2" s="22" t="s">
         <v>22</v>
       </c>
@@ -17584,10 +17633,10 @@
         <v>19</v>
       </c>
       <c r="B3" s="58"/>
-      <c r="C3" s="277" t="s">
+      <c r="C3" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="286"/>
       <c r="E3" s="22" t="s">
         <v>25</v>
       </c>
@@ -17606,12 +17655,12 @@
         <v>20</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="277" t="s">
+      <c r="C4" s="285" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="278"/>
+      <c r="D4" s="289"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="286"/>
       <c r="G4" s="22" t="s">
         <v>24</v>
       </c>
@@ -17624,42 +17673,42 @@
         <v>28</v>
       </c>
       <c r="B5" s="28"/>
-      <c r="C5" s="277" t="s">
+      <c r="C5" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="278"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="286"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="28"/>
-      <c r="C6" s="277" t="s">
+      <c r="C6" s="285" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="278"/>
+      <c r="D6" s="289"/>
+      <c r="E6" s="289"/>
+      <c r="F6" s="289"/>
+      <c r="G6" s="289"/>
+      <c r="H6" s="286"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="58" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="277" t="s">
+      <c r="C7" s="285" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="278"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="286"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A8" s="29" t="s">
@@ -17680,10 +17729,10 @@
       <c r="B9" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="283"/>
+      <c r="D9" s="321"/>
       <c r="E9" s="35" t="s">
         <v>1</v>
       </c>
@@ -17704,10 +17753,10 @@
       <c r="B10" s="232" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="323" t="s">
+      <c r="C10" s="356" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="324"/>
+      <c r="D10" s="357"/>
       <c r="E10" s="233" t="s">
         <v>49</v>
       </c>
@@ -17728,10 +17777,10 @@
       <c r="B11" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="325" t="s">
+      <c r="C11" s="358" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="326"/>
+      <c r="D11" s="359"/>
       <c r="E11" s="228" t="s">
         <v>35</v>
       </c>
@@ -17769,10 +17818,10 @@
       <c r="A14" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="286" t="s">
+      <c r="B14" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="288"/>
+      <c r="C14" s="291"/>
       <c r="D14" s="151" t="s">
         <v>9</v>
       </c>
@@ -17789,15 +17838,15 @@
       <c r="A15" s="69">
         <v>1</v>
       </c>
-      <c r="B15" s="290" t="s">
+      <c r="B15" s="314" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="291"/>
-      <c r="D15" s="302" t="s">
+      <c r="C15" s="315"/>
+      <c r="D15" s="335" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="303"/>
-      <c r="F15" s="304"/>
+      <c r="E15" s="336"/>
+      <c r="F15" s="337"/>
       <c r="G15" s="70" t="s">
         <v>53</v>
       </c>
@@ -17834,15 +17883,15 @@
       <c r="B18" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="286" t="s">
+      <c r="C18" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="287"/>
-      <c r="E18" s="288"/>
-      <c r="F18" s="286" t="s">
+      <c r="D18" s="308"/>
+      <c r="E18" s="291"/>
+      <c r="F18" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="289"/>
+      <c r="G18" s="324"/>
       <c r="H18" s="45" t="s">
         <v>14</v>
       </c>
@@ -17850,11 +17899,11 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="135"/>
       <c r="B19" s="134"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="303"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="304"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="336"/>
+      <c r="E19" s="337"/>
+      <c r="F19" s="335"/>
+      <c r="G19" s="337"/>
       <c r="H19" s="133"/>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
@@ -17886,15 +17935,15 @@
       <c r="B22" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="286" t="s">
+      <c r="C22" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="287"/>
-      <c r="E22" s="288"/>
-      <c r="F22" s="282" t="s">
+      <c r="D22" s="308"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="309" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="295"/>
+      <c r="G22" s="310"/>
       <c r="H22" s="36" t="s">
         <v>17</v>
       </c>
@@ -17906,15 +17955,15 @@
       <c r="B23" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="302" t="s">
+      <c r="C23" s="335" t="s">
         <v>266</v>
       </c>
-      <c r="D23" s="303"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="302" t="s">
+      <c r="D23" s="336"/>
+      <c r="E23" s="337"/>
+      <c r="F23" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="304"/>
+      <c r="G23" s="337"/>
       <c r="H23" s="133" t="s">
         <v>155</v>
       </c>
